--- a/Design.xlsx
+++ b/Design.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Các lần login sau sẽ không hiển thị màn hình này nữa</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>User click ô điểm và nhập điểm cộng/trừ</t>
+  </si>
+  <si>
+    <t>Click nhanh vào button + hoặc - sẽ thực hiện cộng nhanh 1 hoặc trừ nhanh 1</t>
+  </si>
+  <si>
+    <t>Nếu user click giữ im button + hoặc - thì sẽ hiển thị dialog để nhập điểm tùy ý</t>
+  </si>
+  <si>
+    <t>List người chơi: hiển thị thông tin người chơi và điểm</t>
   </si>
 </sst>
 </file>
@@ -293,15 +302,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -310,7 +319,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="7448551"/>
+          <a:off x="2181225" y="8943976"/>
           <a:ext cx="1609725" cy="238124"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -354,15 +363,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -371,7 +380,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762001" y="7762876"/>
+          <a:off x="2295526" y="11191876"/>
           <a:ext cx="1133474" cy="238123"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1218,8 +1227,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1323976" y="4476751"/>
-            <a:ext cx="438150" cy="257173"/>
+            <a:off x="1219200" y="4476751"/>
+            <a:ext cx="542926" cy="257173"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1251,7 +1260,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t>edit</a:t>
+              <a:t>View</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -1308,8 +1317,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1323976" y="4857751"/>
-            <a:ext cx="438150" cy="257173"/>
+            <a:off x="1228725" y="4857751"/>
+            <a:ext cx="533401" cy="257173"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1341,7 +1350,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t>edit</a:t>
+              <a:t>View</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -1398,8 +1407,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1314451" y="5229226"/>
-            <a:ext cx="438150" cy="257173"/>
+            <a:off x="1228725" y="5229226"/>
+            <a:ext cx="523876" cy="257173"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1431,295 +1440,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t>edit</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="100" name="Group 99"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5486400" y="5267325"/>
-          <a:ext cx="1733550" cy="1781176"/>
-          <a:chOff x="4267200" y="4486275"/>
-          <a:chExt cx="1733550" cy="1781176"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="101" name="Rectangle 100"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4267200" y="4486275"/>
-            <a:ext cx="1733550" cy="1781176"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="102" name="Rectangle 101"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4419600" y="4686301"/>
-            <a:ext cx="1304925" cy="219075"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="7030A0"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>Dialog edit ván</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="103" name="Rectangle 102"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4419600" y="5067302"/>
-            <a:ext cx="1304925" cy="247648"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t>Thông tin 1 của ván</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="104" name="Rectangle 103"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4429124" y="5838826"/>
-            <a:ext cx="552451" cy="257173"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t>Save</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="105" name="Rectangle 104"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4419600" y="5400677"/>
-            <a:ext cx="1304925" cy="247648"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t>Thông tin 2 của ván</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="106" name="Rectangle 105"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5095874" y="5829301"/>
-            <a:ext cx="619126" cy="257173"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t>Cancel</a:t>
+              <a:t>View</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -1730,15 +1451,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1747,7 +1468,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7315200" y="5267325"/>
+          <a:off x="7419975" y="5467350"/>
           <a:ext cx="1733550" cy="1781176"/>
           <a:chOff x="4267200" y="4486275"/>
           <a:chExt cx="1733550" cy="1781176"/>
@@ -2038,15 +1759,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>85723</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2055,7 +1776,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="742950" y="8591550"/>
+          <a:off x="2276475" y="12020550"/>
           <a:ext cx="238125" cy="257173"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2098,15 +1819,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>419101</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2115,7 +1836,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1028701" y="9296401"/>
+          <a:off x="2314576" y="9505951"/>
           <a:ext cx="1381124" cy="238123"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2155,15 +1876,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>76198</xdr:rowOff>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>190498</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2172,7 +1893,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1019174" y="9953625"/>
+          <a:off x="2305049" y="10163175"/>
           <a:ext cx="238125" cy="257173"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2215,15 +1936,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2232,7 +1953,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="733426" y="9648826"/>
+          <a:off x="2019301" y="9858376"/>
           <a:ext cx="1904999" cy="238123"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2289,7 +2010,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="13144500"/>
+          <a:off x="1828800" y="14611350"/>
           <a:ext cx="2981325" cy="5591175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2326,13 +2047,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
+      <xdr:colOff>381001</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
+      <xdr:colOff>466726</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
@@ -2343,7 +2064,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762001" y="13315951"/>
+          <a:off x="2209801" y="14782801"/>
           <a:ext cx="1304925" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2387,15 +2108,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>152402</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:colOff>361952</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2404,7 +2125,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762002" y="13668376"/>
+          <a:off x="2190752" y="17002126"/>
           <a:ext cx="1133474" cy="238123"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2506,15 +2227,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2523,7 +2244,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="752475" y="13954126"/>
+          <a:off x="2181225" y="17287876"/>
           <a:ext cx="1304925" cy="219074"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2571,15 +2292,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>95248</xdr:rowOff>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>57148</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2588,7 +2309,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2076451" y="13935075"/>
+          <a:off x="3505201" y="17268825"/>
           <a:ext cx="438150" cy="257173"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2631,15 +2352,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2648,7 +2369,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="742950" y="14211301"/>
+          <a:off x="2171700" y="17545051"/>
           <a:ext cx="1304925" cy="219074"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2705,15 +2426,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>161923</xdr:rowOff>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>123823</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2722,7 +2443,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2066926" y="14192250"/>
+          <a:off x="3495676" y="17526000"/>
           <a:ext cx="438150" cy="257173"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2765,15 +2486,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>95248</xdr:rowOff>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>57148</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2782,7 +2503,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2514601" y="13935075"/>
+          <a:off x="3943351" y="17268825"/>
           <a:ext cx="609600" cy="257173"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2825,15 +2546,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>161923</xdr:rowOff>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>123823</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2842,7 +2563,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2514601" y="14192250"/>
+          <a:off x="3943351" y="17526000"/>
           <a:ext cx="609600" cy="257173"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2945,15 +2666,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>371476</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>85723</xdr:rowOff>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>47623</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2962,7 +2683,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="742951" y="14497050"/>
+          <a:off x="2171701" y="17830800"/>
           <a:ext cx="238125" cy="257173"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3005,15 +2726,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>171448</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>152398</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3022,7 +2743,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1171575" y="15935325"/>
+          <a:off x="2209800" y="15287625"/>
           <a:ext cx="1181100" cy="238123"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3062,15 +2783,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>228598</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:colOff>47623</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>466723</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>142872</xdr:rowOff>
+      <xdr:colOff>285748</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>123822</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3079,7 +2800,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1447798" y="16687799"/>
+          <a:off x="2486023" y="16001999"/>
           <a:ext cx="238125" cy="257173"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3122,15 +2843,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>9523</xdr:rowOff>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>180973</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3139,7 +2860,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1162050" y="16383000"/>
+          <a:off x="2200275" y="15697200"/>
           <a:ext cx="1638299" cy="238123"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3178,983 +2899,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="226" name="Rectangle 225"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14020800" y="13182600"/>
-          <a:ext cx="2981325" cy="5591175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="227" name="Rectangle 226"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14173201" y="13354051"/>
-          <a:ext cx="1304925" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Màn</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> hình Ván đấu</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>152402</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="228" name="Rectangle 227"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14173202" y="13706476"/>
-          <a:ext cx="1133474" cy="238123"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>List người chơi</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="229" name="Rectangle 228"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14030325" y="18497551"/>
-          <a:ext cx="1457326" cy="257173"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Tính điểm bottom</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="230" name="Rectangle 229"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14163675" y="13992226"/>
-          <a:ext cx="1304925" cy="219074"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Người 1  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" i="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Tổng điểm</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>95248</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="231" name="Rectangle 230"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15487651" y="13973175"/>
-          <a:ext cx="438150" cy="257173"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>edit</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="232" name="Rectangle 231"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14154150" y="14249401"/>
-          <a:ext cx="1304925" cy="219074"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Người 2  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" i="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Tổng điểm</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>161923</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="233" name="Rectangle 232"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15478126" y="14230350"/>
-          <a:ext cx="438150" cy="257173"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>edit</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>95248</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="234" name="Rectangle 233"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15925801" y="13973175"/>
-          <a:ext cx="609600" cy="257173"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>delete</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>161923</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="235" name="Rectangle 234"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15925801" y="14230350"/>
-          <a:ext cx="609600" cy="257173"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>delete</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="236" name="Rectangle 235"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15516225" y="18507076"/>
-          <a:ext cx="1457326" cy="257173"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Tính thời gian bottom</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>371476</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>85723</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="237" name="Rectangle 236"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14154151" y="14535150"/>
-          <a:ext cx="238125" cy="257173"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>+</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>76202</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="238" name="Rectangle 237"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14706602" y="15992476"/>
-          <a:ext cx="1419223" cy="238123"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Thời gian thi đấu</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>114298</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="239" name="Rectangle 238"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15554325" y="16278225"/>
-          <a:ext cx="552450" cy="257173"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>edit</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>85727</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="240" name="Rectangle 239"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14716127" y="16268701"/>
-          <a:ext cx="828673" cy="361949"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1" baseline="0"/>
-            <a:t>15:30</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>276226</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>276226</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>114298</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="241" name="Rectangle 240"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16125826" y="16278225"/>
-          <a:ext cx="609600" cy="257173"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>delete</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4163,7 +2917,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="742951" y="8153401"/>
+          <a:off x="2276476" y="11544301"/>
           <a:ext cx="1895474" cy="238123"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4203,14 +2957,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4220,7 +2974,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10391775" y="8715375"/>
+          <a:off x="10372725" y="10429875"/>
           <a:ext cx="1762125" cy="1781176"/>
           <a:chOff x="4248150" y="4486275"/>
           <a:chExt cx="1762125" cy="1781176"/>
@@ -4504,14 +3258,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4521,7 +3275,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12239625" y="8715375"/>
+          <a:off x="12220575" y="10429875"/>
           <a:ext cx="1733550" cy="1781176"/>
           <a:chOff x="4267200" y="4486275"/>
           <a:chExt cx="1733550" cy="1781176"/>
@@ -4868,15 +3622,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>152402</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:colOff>323852</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4885,7 +3639,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3810002" y="7800976"/>
+          <a:off x="5200652" y="11191876"/>
           <a:ext cx="1133474" cy="238123"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4985,15 +3739,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5002,7 +3756,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3800476" y="9344026"/>
+          <a:off x="5191126" y="11477626"/>
           <a:ext cx="1295400" cy="219074"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5047,15 +3801,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>95248</xdr:rowOff>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>152398</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5064,7 +3818,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5124451" y="8067675"/>
+          <a:off x="6515101" y="11458575"/>
           <a:ext cx="438150" cy="257173"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5107,15 +3861,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5124,7 +3878,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3790950" y="8343901"/>
+          <a:off x="5181600" y="11734801"/>
           <a:ext cx="1304925" cy="219074"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5169,15 +3923,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>161923</xdr:rowOff>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5186,7 +3940,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5114926" y="8324850"/>
+          <a:off x="6505576" y="11715750"/>
           <a:ext cx="438150" cy="257173"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5229,15 +3983,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>95248</xdr:rowOff>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>152398</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5246,7 +4000,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5562601" y="8067675"/>
+          <a:off x="6953251" y="11458575"/>
           <a:ext cx="609600" cy="257173"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5289,15 +4043,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>161923</xdr:rowOff>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5306,7 +4060,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5562601" y="8324850"/>
+          <a:off x="6953251" y="11715750"/>
           <a:ext cx="609600" cy="257173"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5411,15 +4165,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>371476</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>85723</xdr:rowOff>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5428,7 +4182,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3790951" y="8629650"/>
+          <a:off x="5181601" y="12020550"/>
           <a:ext cx="238125" cy="257173"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5471,15 +4225,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>180977</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:colOff>390527</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5488,7 +4242,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3838577" y="9153526"/>
+          <a:off x="5267327" y="9410701"/>
           <a:ext cx="1247773" cy="238123"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5528,15 +4282,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>152398</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>104773</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5545,7 +4299,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4410075" y="9439275"/>
+          <a:off x="5838825" y="9696450"/>
           <a:ext cx="552450" cy="257173"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5588,15 +4342,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>190502</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:colOff>400052</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5605,7 +4359,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3848102" y="9429751"/>
+          <a:off x="5276852" y="9686926"/>
           <a:ext cx="542923" cy="361949"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5645,15 +4399,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>152398</xdr:rowOff>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>104773</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5662,7 +4416,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4981576" y="9439275"/>
+          <a:off x="6410326" y="9696450"/>
           <a:ext cx="609600" cy="257173"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5704,15 +4458,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5722,7 +4476,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8534400" y="8705850"/>
+          <a:off x="8515350" y="10420350"/>
           <a:ext cx="1762125" cy="1781176"/>
           <a:chOff x="4248150" y="4486275"/>
           <a:chExt cx="1762125" cy="1781176"/>
@@ -6005,16 +4759,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -6023,7 +4777,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8543925" y="10744201"/>
+          <a:off x="8524875" y="8715376"/>
           <a:ext cx="1743075" cy="1352550"/>
           <a:chOff x="7324725" y="10820401"/>
           <a:chExt cx="1743075" cy="1352550"/>
@@ -6254,16 +5008,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -6272,7 +5026,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10363200" y="10734676"/>
+          <a:off x="10344150" y="8705851"/>
           <a:ext cx="1743075" cy="1352550"/>
           <a:chOff x="7324725" y="10820401"/>
           <a:chExt cx="1743075" cy="1352550"/>
@@ -6503,16 +5257,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -6521,10 +5275,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12192000" y="10744200"/>
-          <a:ext cx="1743075" cy="1352550"/>
-          <a:chOff x="7324725" y="10820401"/>
-          <a:chExt cx="1743075" cy="1352550"/>
+          <a:off x="12182475" y="8715375"/>
+          <a:ext cx="1733550" cy="1352550"/>
+          <a:chOff x="7334250" y="10820401"/>
+          <a:chExt cx="1733550" cy="1352550"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -6622,8 +5376,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7324725" y="11401427"/>
-            <a:ext cx="1743075" cy="247648"/>
+            <a:off x="7477125" y="11391902"/>
+            <a:ext cx="1381125" cy="247648"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6652,7 +5406,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t>Điểm tổng</a:t>
+              <a:t>Bạn chắc muốn xóa</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -6803,7 +5557,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Chiến nào</a:t>
+            <a:t>Vào đấu</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7231,7 +5985,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Back</a:t>
+            <a:t>Hoàn tất</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7916,6 +6670,5277 @@
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t>1</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="153" name="Rectangle 152"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4895850" y="14601825"/>
+          <a:ext cx="2981325" cy="5591175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="154" name="Rectangle 153"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5029201" y="14782801"/>
+          <a:ext cx="1304925" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Màn</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> hình Ván đấu</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390527</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="155" name="Rectangle 154"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5267327" y="16964026"/>
+          <a:ext cx="1133474" cy="238123"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>List người chơi</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="156" name="Rectangle 155"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4886325" y="19926301"/>
+          <a:ext cx="1457326" cy="257173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Tính điểm bottom</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="157" name="Rectangle 156"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5257800" y="17249776"/>
+          <a:ext cx="1304925" cy="219074"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Người 1  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Tổng điểm</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>19048</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="Rectangle 157"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6581776" y="17230725"/>
+          <a:ext cx="438150" cy="257173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>edit</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="Rectangle 158"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248275" y="17506951"/>
+          <a:ext cx="1304925" cy="219074"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Người 2  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tổng điểm</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>85723</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="160" name="Rectangle 159"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6572251" y="17487900"/>
+          <a:ext cx="438150" cy="257173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>edit</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>19048</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="Rectangle 160"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7019926" y="17230725"/>
+          <a:ext cx="609600" cy="257173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>delete</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>85723</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="162" name="Rectangle 161"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7019926" y="17487900"/>
+          <a:ext cx="609600" cy="257173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>delete</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="163" name="Rectangle 162"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6372225" y="19935826"/>
+          <a:ext cx="1457326" cy="257173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Tính thời gian bottom</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>9523</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="Rectangle 163"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248276" y="17792700"/>
+          <a:ext cx="238125" cy="257173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>+</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342902</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="165" name="Rectangle 164"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5219702" y="15230476"/>
+          <a:ext cx="1781173" cy="238123"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Thời gian thi đấu: deadline</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>19048</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="166" name="Rectangle 165"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6067425" y="15516225"/>
+          <a:ext cx="552450" cy="257173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>edit</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352427</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="Rectangle 166"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5229227" y="15506701"/>
+          <a:ext cx="828673" cy="361949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" baseline="0"/>
+            <a:t>15:30</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>19048</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="168" name="Rectangle 167"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6638926" y="15516225"/>
+          <a:ext cx="609600" cy="257173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>delete</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="169" name="Group 168"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10382250" y="16335375"/>
+          <a:ext cx="1762125" cy="1781176"/>
+          <a:chOff x="4248150" y="4486275"/>
+          <a:chExt cx="1762125" cy="1781176"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="170" name="Rectangle 169"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4267200" y="4486275"/>
+            <a:ext cx="1733550" cy="1781176"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="171" name="Rectangle 170"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4419600" y="4686301"/>
+            <a:ext cx="1466850" cy="209549"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Dialog edit người</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> chơi</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="172" name="Rectangle 171"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4257675" y="5067302"/>
+            <a:ext cx="1743075" cy="247648"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>Tên người chơi</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="173" name="Rectangle 172"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4429124" y="5838826"/>
+            <a:ext cx="552451" cy="257173"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>Save</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="174" name="Rectangle 173"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4248150" y="5400677"/>
+            <a:ext cx="1762125" cy="247648"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Nick name</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="175" name="Rectangle 174"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5095874" y="5829301"/>
+            <a:ext cx="619126" cy="257173"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>Cancel</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="176" name="Group 175"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12230100" y="16335375"/>
+          <a:ext cx="1733550" cy="1781176"/>
+          <a:chOff x="4267200" y="4486275"/>
+          <a:chExt cx="1733550" cy="1781176"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="177" name="Rectangle 176"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4267200" y="4486275"/>
+            <a:ext cx="1733550" cy="1781176"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="178" name="Rectangle 177"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4343400" y="4686301"/>
+            <a:ext cx="1638300" cy="209549"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Dialog delete người</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> chơi</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="179" name="Rectangle 178"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4429124" y="5838826"/>
+            <a:ext cx="552451" cy="257173"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>Chắc</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="180" name="Rectangle 179"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4419600" y="5048252"/>
+            <a:ext cx="1304925" cy="247648"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>Bạn chắc muốn xóa</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="181" name="Rectangle 180"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5095874" y="5829301"/>
+            <a:ext cx="619126" cy="257173"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>Không</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="182" name="Group 181"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8524875" y="16325850"/>
+          <a:ext cx="1762125" cy="1781176"/>
+          <a:chOff x="4248150" y="4486275"/>
+          <a:chExt cx="1762125" cy="1781176"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="183" name="Rectangle 182"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4267200" y="4486275"/>
+            <a:ext cx="1733550" cy="1781176"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="184" name="Rectangle 183"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4419600" y="4686301"/>
+            <a:ext cx="1466850" cy="209549"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Dialog add người</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> chơi</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="185" name="Rectangle 184"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4257675" y="5067302"/>
+            <a:ext cx="1743075" cy="247648"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>Tên người chơi</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="186" name="Rectangle 185"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4429124" y="5838826"/>
+            <a:ext cx="552451" cy="257173"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>Add</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="187" name="Rectangle 186"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4248150" y="5400677"/>
+            <a:ext cx="1762125" cy="247648"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Nick name</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="188" name="Rectangle 187"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5095874" y="5829301"/>
+            <a:ext cx="619126" cy="257173"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>Cancel</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="201" name="Group 200"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12201525" y="14611350"/>
+          <a:ext cx="1733550" cy="1352550"/>
+          <a:chOff x="7334250" y="10820401"/>
+          <a:chExt cx="1733550" cy="1352550"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="202" name="Rectangle 201"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7334250" y="10820401"/>
+            <a:ext cx="1733550" cy="1352550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="203" name="Rectangle 202"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7343775" y="11020426"/>
+            <a:ext cx="1647825" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Dialog delete thời</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> gian</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="204" name="Rectangle 203"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7477125" y="11391902"/>
+            <a:ext cx="1381125" cy="247648"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>Bạn chắc muốn xóa</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="205" name="Rectangle 204"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7496174" y="11801475"/>
+            <a:ext cx="552451" cy="257173"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>Chắc </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="206" name="Rectangle 205"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8162924" y="11791950"/>
+            <a:ext cx="619126" cy="257173"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>Không</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="Group 3"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10372725" y="14601826"/>
+          <a:ext cx="1733550" cy="1352550"/>
+          <a:chOff x="10372725" y="14601826"/>
+          <a:chExt cx="1733550" cy="1352550"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="195" name="Group 194"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="10372725" y="14601826"/>
+            <a:ext cx="1733550" cy="1352550"/>
+            <a:chOff x="7334250" y="10820401"/>
+            <a:chExt cx="1733550" cy="1352550"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="196" name="Rectangle 195"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7334250" y="10820401"/>
+              <a:ext cx="1733550" cy="1352550"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="197" name="Rectangle 196"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7486650" y="11020426"/>
+              <a:ext cx="1466850" cy="209549"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>Dialog edit  thời</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> gian</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="198" name="Rectangle 197"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7486651" y="11401427"/>
+              <a:ext cx="457200" cy="247648"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t>Giờ</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="199" name="Rectangle 198"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7496174" y="11801475"/>
+              <a:ext cx="552451" cy="257173"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t>Save</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="200" name="Rectangle 199"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8162924" y="11791950"/>
+              <a:ext cx="619126" cy="257173"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t>Cancel</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="208" name="Rectangle 207"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11125200" y="15192376"/>
+            <a:ext cx="600075" cy="247648"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>Phút</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>47623</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="209" name="Rectangle 208"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5581650" y="18783300"/>
+          <a:ext cx="904875" cy="257173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Vào đấu</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5591175" y="4686300"/>
+          <a:ext cx="1733550" cy="2562226"/>
+          <a:chOff x="5591175" y="4686300"/>
+          <a:chExt cx="1733550" cy="2562226"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="101" name="Rectangle 100"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5591175" y="4686300"/>
+            <a:ext cx="1733550" cy="2562226"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="102" name="Rectangle 101"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5743575" y="4905376"/>
+            <a:ext cx="1447800" cy="238123"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Dialog View ván đấu</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="103" name="Rectangle 102"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5753100" y="5857877"/>
+            <a:ext cx="1304925" cy="247648"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>List người chơi</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="105" name="Rectangle 104"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6057901" y="5286375"/>
+            <a:ext cx="609600" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="3000" baseline="0"/>
+              <a:t>52</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="106" name="Rectangle 105"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6419849" y="6810376"/>
+            <a:ext cx="619126" cy="257173"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>Close</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="211" name="Rectangle 210"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5762626" y="6172200"/>
+            <a:ext cx="1295400" cy="219074"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>Người 1   </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="1" u="sng" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>52</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="212" name="Rectangle 211"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5753100" y="6429375"/>
+            <a:ext cx="1304925" cy="219074"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>Người 2   </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="1" u="sng" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>34</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="Group 2"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8553450" y="14611351"/>
+          <a:ext cx="1733550" cy="1352550"/>
+          <a:chOff x="8553450" y="14611351"/>
+          <a:chExt cx="1733550" cy="1352550"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="189" name="Group 188"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="8553450" y="14611351"/>
+            <a:ext cx="1733550" cy="1352550"/>
+            <a:chOff x="7334250" y="10820401"/>
+            <a:chExt cx="1733550" cy="1352550"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="190" name="Rectangle 189"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7334250" y="10820401"/>
+              <a:ext cx="1733550" cy="1352550"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="191" name="Rectangle 190"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7486650" y="11020426"/>
+              <a:ext cx="1466850" cy="209549"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>Dialog add thời</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> gian</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="192" name="Rectangle 191"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7486651" y="11401427"/>
+              <a:ext cx="438150" cy="247648"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t>Giờ</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="193" name="Rectangle 192"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7496174" y="11801475"/>
+              <a:ext cx="552451" cy="257173"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t>Add</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="194" name="Rectangle 193"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8162924" y="11791950"/>
+              <a:ext cx="619126" cy="257173"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t>Cancel</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="214" name="Rectangle 213"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9248775" y="15192376"/>
+            <a:ext cx="581025" cy="247648"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>Phút</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="217" name="Group 216"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="18297525" y="12496800"/>
+          <a:ext cx="1733550" cy="1781176"/>
+          <a:chOff x="4267200" y="4486275"/>
+          <a:chExt cx="1733550" cy="1781176"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="218" name="Rectangle 217"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4267200" y="4486275"/>
+            <a:ext cx="1733550" cy="1781176"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="219" name="Rectangle 218"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4343400" y="4686301"/>
+            <a:ext cx="1638300" cy="209549"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Dialog lưu ván</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> đấu</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="220" name="Rectangle 219"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4429124" y="5838826"/>
+            <a:ext cx="552451" cy="257173"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>Có</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="221" name="Rectangle 220"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4419600" y="5048251"/>
+            <a:ext cx="1304925" cy="466723"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>Bạn có muốn lưu ván đấu </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="222" name="Rectangle 221"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5095874" y="5829301"/>
+            <a:ext cx="619126" cy="257173"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>Không</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="223" name="Rectangle 222"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15240000" y="8705850"/>
+          <a:ext cx="2981325" cy="5505449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="243" name="Rectangle 242"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15392401" y="8877301"/>
+          <a:ext cx="1304925" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Màn</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> hình Ván đấu</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>152402</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="244" name="Rectangle 243"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15392402" y="10210801"/>
+          <a:ext cx="1133474" cy="238123"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>List người chơi</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="245" name="Rectangle 244"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15382875" y="10496550"/>
+          <a:ext cx="1457325" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Người 1  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>13</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="259" name="Rectangle 258"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15373350" y="10810875"/>
+          <a:ext cx="1466850" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Người 2  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>12</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="260" name="Rectangle 259"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15849600" y="15373351"/>
+          <a:ext cx="1524000" cy="695324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="1" baseline="0"/>
+            <a:t>15:30</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>57148</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="261" name="Rectangle 260"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17240250" y="13077825"/>
+          <a:ext cx="838201" cy="257173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Hoàn tất</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="262" name="Oval 261"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16840200" y="10439400"/>
+          <a:ext cx="323850" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="263" name="Oval 262"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17183100" y="10429875"/>
+          <a:ext cx="323850" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>+</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>102869</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="264" name="Rectangle 263"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15373351" y="10096500"/>
+          <a:ext cx="2686049" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="265" name="Oval 264"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16830675" y="10782300"/>
+          <a:ext cx="323850" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="266" name="Oval 265"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17173575" y="10772775"/>
+          <a:ext cx="323850" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>+</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="267" name="Rectangle 266"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18297525" y="10239375"/>
+          <a:ext cx="1733550" cy="2038350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="268" name="Rectangle 267"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18307050" y="10439400"/>
+          <a:ext cx="1647825" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Dialog cộng/trừ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> điểm</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="269" name="Rectangle 268"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18516601" y="10810876"/>
+          <a:ext cx="1085850" cy="247648"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Điểm</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>142872</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="270" name="Rectangle 269"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18307049" y="11830049"/>
+          <a:ext cx="866776" cy="257173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Cộng /trừ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>133347</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="271" name="Rectangle 270"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19402424" y="11820524"/>
+          <a:ext cx="619126" cy="257173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Cancel</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="272" name="Rectangle 271"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18878551" y="11134726"/>
+          <a:ext cx="285749" cy="247648"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="273" name="Rectangle 272"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18878551" y="11382376"/>
+          <a:ext cx="285749" cy="247648"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="274" name="Group 273"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="18297525" y="18592800"/>
+          <a:ext cx="1733550" cy="1781176"/>
+          <a:chOff x="4267200" y="4486275"/>
+          <a:chExt cx="1733550" cy="1781176"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="291" name="Rectangle 290"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4267200" y="4486275"/>
+            <a:ext cx="1733550" cy="1781176"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="292" name="Rectangle 291"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4343400" y="4686301"/>
+            <a:ext cx="1638300" cy="209549"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Dialog lưu ván</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> đấu</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="293" name="Rectangle 292"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4429124" y="5838826"/>
+            <a:ext cx="552451" cy="257173"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>Có</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="294" name="Rectangle 293"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4419600" y="5048251"/>
+            <a:ext cx="1304925" cy="466723"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>Bạn có muốn lưu ván đấu </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="295" name="Rectangle 294"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5095874" y="5829301"/>
+            <a:ext cx="619126" cy="257173"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>Không</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="296" name="Rectangle 295"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15382875" y="11363325"/>
+          <a:ext cx="657225" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Người 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" i="1" u="sng" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="297" name="Rectangle 296"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16125825" y="11363325"/>
+          <a:ext cx="704850" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Người 2 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="298" name="Rectangle 297"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16887825" y="11363325"/>
+          <a:ext cx="704850" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Người 3 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="299" name="Rectangle 298"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15440025" y="11706224"/>
+          <a:ext cx="704850" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>điểm row 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" i="1" u="sng" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="307" name="Rectangle 306"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16144874" y="11706224"/>
+          <a:ext cx="704851" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>điểm row 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="312" name="Rectangle 311"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16849725" y="11706225"/>
+          <a:ext cx="704850" cy="466726"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>điểm row 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="327" name="Rectangle 326"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15440025" y="12172949"/>
+          <a:ext cx="704850" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>điểm row 2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" i="1" u="sng" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="328" name="Rectangle 327"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16144874" y="12172949"/>
+          <a:ext cx="704851" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>điểm row 2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="329" name="Rectangle 328"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16849725" y="12172950"/>
+          <a:ext cx="704850" cy="466726"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>điểm row 2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8187,10 +12212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:AH60"/>
+  <dimension ref="D2:AH92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L40" workbookViewId="0">
-      <selection activeCell="AH68" sqref="AH68"/>
+    <sheetView tabSelected="1" topLeftCell="N43" workbookViewId="0">
+      <selection activeCell="AL68" sqref="AL68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8773,32 +12798,84 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="18:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="31:34" x14ac:dyDescent="0.25">
       <c r="AE50" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="AE52" t="s">
+    <row r="51" spans="31:34" x14ac:dyDescent="0.25">
+      <c r="AE51" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="18:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="31:34" x14ac:dyDescent="0.25">
+      <c r="AE52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="31:34" x14ac:dyDescent="0.25">
+      <c r="AE53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="31:34" x14ac:dyDescent="0.25">
       <c r="AE56" s="11"/>
     </row>
-    <row r="57" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="5"/>
-    </row>
-    <row r="58" spans="18:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="31:34" x14ac:dyDescent="0.25">
       <c r="AH58" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="18:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="31:34" x14ac:dyDescent="0.25">
       <c r="AH60" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="26:31" x14ac:dyDescent="0.25">
+      <c r="Z78" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="26:31" x14ac:dyDescent="0.25">
+      <c r="AE79" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="26:31" x14ac:dyDescent="0.25">
+      <c r="AE80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="31:34" x14ac:dyDescent="0.25">
+      <c r="AE82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="31:34" x14ac:dyDescent="0.25">
+      <c r="AE83" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="31:34" x14ac:dyDescent="0.25">
+      <c r="AE84" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="31:34" x14ac:dyDescent="0.25">
+      <c r="AE85" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="31:34" x14ac:dyDescent="0.25">
+      <c r="AE88" s="11"/>
+    </row>
+    <row r="90" spans="31:34" x14ac:dyDescent="0.25">
+      <c r="AH90" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="31:34" x14ac:dyDescent="0.25">
+      <c r="AH92" s="11" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Design.xlsx
+++ b/Design.xlsx
@@ -18,8 +18,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="F4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+sử dụng sharedpreferences</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M47" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Sử dụng ViewPager + Fragment + Bottom navigation</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Các lần login sau sẽ không hiển thị màn hình này nữa</t>
   </si>
@@ -86,12 +144,33 @@
   <si>
     <t>List người chơi: hiển thị thông tin người chơi và điểm</t>
   </si>
+  <si>
+    <t>Khi có người chiến thắng sẽ changed text "Back" -&gt; "Hoàn tất"</t>
+  </si>
+  <si>
+    <t>Xử lý này tương tự như xử lý ở Fragment tính điểm</t>
+  </si>
+  <si>
+    <t>Nếu thời gian thực &gt;= thời gian setting, check điểm người chơi và chọn người chiến thắng. Notify người winer</t>
+  </si>
+  <si>
+    <t>Thanh tiến trình của trận đấu sẽ được cập nhật sau mỗi s</t>
+  </si>
+  <si>
+    <t>Note: Em dự định sẽ implement theo mô hình MVVM để có thể sử dụng LiveData</t>
+  </si>
+  <si>
+    <t>Chi tiết design file trong quá trình làm dần dần e bổ sung chứ giờ cũng chưa biết list như nào cho hợp lý.</t>
+  </si>
+  <si>
+    <t>Vì là lần đầu nên e chỉ nghĩ tới phần cơ bản vậy, hơi chuối và sida nên nhờ anh xem thử có chỗ nào nên ghi rõ hơn hoặc chỗ nào không hợp lý giúp em, thank anh.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,8 +185,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,6 +209,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -225,7 +323,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1452,14 +1553,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1468,7 +1569,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7419975" y="5467350"/>
+          <a:off x="7419975" y="5791200"/>
           <a:ext cx="1733550" cy="1781176"/>
           <a:chOff x="4267200" y="4486275"/>
           <a:chExt cx="1733550" cy="1781176"/>
@@ -1992,15 +2093,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2046,15 +2147,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2107,15 +2208,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>361952</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>276226</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2164,15 +2265,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2226,15 +2327,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2291,15 +2392,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>57148</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2351,15 +2452,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2425,15 +2526,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>276226</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>123823</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2485,15 +2586,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>57148</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2545,15 +2646,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>123823</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2605,15 +2706,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2665,15 +2766,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>342901</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>581026</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>47623</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2725,15 +2826,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>152398</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2782,15 +2883,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>47623</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>285748</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>123822</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2842,15 +2943,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>180973</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2958,14 +3059,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2974,7 +3075,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10372725" y="10429875"/>
+          <a:off x="10372725" y="12258675"/>
           <a:ext cx="1762125" cy="1781176"/>
           <a:chOff x="4248150" y="4486275"/>
           <a:chExt cx="1762125" cy="1781176"/>
@@ -3259,14 +3360,14 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3275,7 +3376,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12220575" y="10429875"/>
+          <a:off x="12220575" y="12258675"/>
           <a:ext cx="1733550" cy="1781176"/>
           <a:chOff x="4267200" y="4486275"/>
           <a:chExt cx="1733550" cy="1781176"/>
@@ -4460,14 +4561,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4476,7 +4577,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8515350" y="10420350"/>
+          <a:off x="8515350" y="12249150"/>
           <a:ext cx="1762125" cy="1781176"/>
           <a:chOff x="4248150" y="4486275"/>
           <a:chExt cx="1762125" cy="1781176"/>
@@ -4761,14 +4862,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4777,7 +4878,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8524875" y="8715376"/>
+          <a:off x="8524875" y="10544176"/>
           <a:ext cx="1743075" cy="1352550"/>
           <a:chOff x="7324725" y="10820401"/>
           <a:chExt cx="1743075" cy="1352550"/>
@@ -5010,14 +5111,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5026,7 +5127,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10344150" y="8705851"/>
+          <a:off x="10344150" y="10534651"/>
           <a:ext cx="1743075" cy="1352550"/>
           <a:chOff x="7324725" y="10820401"/>
           <a:chExt cx="1743075" cy="1352550"/>
@@ -5259,14 +5360,14 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5275,7 +5376,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12182475" y="8715375"/>
+          <a:off x="12182475" y="10544175"/>
           <a:ext cx="1733550" cy="1352550"/>
           <a:chOff x="7334250" y="10820401"/>
           <a:chExt cx="1733550" cy="1352550"/>
@@ -5566,15 +5667,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5620,15 +5721,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5681,15 +5782,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>152402</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5738,15 +5839,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5803,15 +5904,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5877,15 +5978,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>495302</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5934,15 +6035,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400052</xdr:colOff>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>57148</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5952,8 +6053,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17240250" y="13077825"/>
-          <a:ext cx="838201" cy="257173"/>
+          <a:off x="16964026" y="13077825"/>
+          <a:ext cx="1114426" cy="257173"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5985,7 +6086,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Hoàn tất</a:t>
+            <a:t>Back /Hoàn tất</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5994,15 +6095,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6049,15 +6150,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6104,15 +6205,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>102869</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6158,15 +6259,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6213,15 +6314,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6268,424 +6369,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="381" name="Rectangle 380"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18297525" y="10239375"/>
-          <a:ext cx="1733550" cy="2038350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="382" name="Rectangle 381"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18307050" y="10439400"/>
-          <a:ext cx="1647825" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="7030A0"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Dialog cộng/trừ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> điểm</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="383" name="Rectangle 382"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18516601" y="10810876"/>
-          <a:ext cx="1085850" cy="247648"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Điểm</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>142872</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="384" name="Rectangle 383"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18307049" y="11830049"/>
-          <a:ext cx="866776" cy="257173"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Cộng /trừ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>133347</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="385" name="Rectangle 384"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19402424" y="11820524"/>
-          <a:ext cx="619126" cy="257173"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Cancel</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="386" name="Rectangle 385"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18878551" y="11134726"/>
-          <a:ext cx="285749" cy="247648"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="388" name="Rectangle 387"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18878551" y="11382376"/>
-          <a:ext cx="285749" cy="247648"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6731,15 +6423,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6792,15 +6484,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>390527</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6849,75 +6541,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="156" name="Rectangle 155"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4886325" y="19926301"/>
-          <a:ext cx="1457326" cy="257173"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Tính điểm bottom</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6974,15 +6606,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>19048</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7034,15 +6666,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7108,15 +6740,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>85723</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7168,15 +6800,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>19048</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7228,15 +6860,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>85723</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7288,77 +6920,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="163" name="Rectangle 162"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6372225" y="19935826"/>
-          <a:ext cx="1457326" cy="257173"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Tính thời gian bottom</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>371476</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>9523</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7410,15 +6980,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>342902</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7467,15 +7037,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>19048</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7527,15 +7097,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>352427</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7584,15 +7154,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>19048</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7644,16 +7214,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -7662,7 +7232,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10382250" y="16335375"/>
+          <a:off x="24031575" y="11868150"/>
           <a:ext cx="1762125" cy="1781176"/>
           <a:chOff x="4248150" y="4486275"/>
           <a:chExt cx="1762125" cy="1781176"/>
@@ -7945,16 +7515,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -7963,7 +7533,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12230100" y="16335375"/>
+          <a:off x="25879425" y="11868150"/>
           <a:ext cx="1733550" cy="1781176"/>
           <a:chOff x="4267200" y="4486275"/>
           <a:chExt cx="1733550" cy="1781176"/>
@@ -8194,16 +7764,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -8212,7 +7782,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8524875" y="16325850"/>
+          <a:off x="22174200" y="11858625"/>
           <a:ext cx="1762125" cy="1781176"/>
           <a:chOff x="4248150" y="4486275"/>
           <a:chExt cx="1762125" cy="1781176"/>
@@ -8495,16 +8065,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -8513,8 +8083,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12201525" y="14611350"/>
-          <a:ext cx="1733550" cy="1352550"/>
+          <a:off x="25850850" y="10182225"/>
+          <a:ext cx="1733550" cy="1314450"/>
           <a:chOff x="7334250" y="10820401"/>
           <a:chExt cx="1733550" cy="1352550"/>
         </a:xfrm>
@@ -8744,16 +8314,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -8762,8 +8332,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10372725" y="14601826"/>
-          <a:ext cx="1733550" cy="1352550"/>
+          <a:off x="24022050" y="10182226"/>
+          <a:ext cx="1733550" cy="1304925"/>
           <a:chOff x="10372725" y="14601826"/>
           <a:chExt cx="1733550" cy="1352550"/>
         </a:xfrm>
@@ -9049,15 +8619,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>47623</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9111,14 +8681,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -9127,7 +8697,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5591175" y="4686300"/>
+          <a:off x="5591175" y="5010150"/>
           <a:ext cx="1733550" cy="2562226"/>
           <a:chOff x="5591175" y="4686300"/>
           <a:chExt cx="1733550" cy="2562226"/>
@@ -9452,16 +9022,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -9470,8 +9040,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8553450" y="14611351"/>
-          <a:ext cx="1733550" cy="1352550"/>
+          <a:off x="22202775" y="10182226"/>
+          <a:ext cx="1733550" cy="1314450"/>
           <a:chOff x="8553450" y="14611351"/>
           <a:chExt cx="1733550" cy="1352550"/>
         </a:xfrm>
@@ -9757,264 +9327,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="217" name="Group 216"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="18297525" y="12496800"/>
-          <a:ext cx="1733550" cy="1781176"/>
-          <a:chOff x="4267200" y="4486275"/>
-          <a:chExt cx="1733550" cy="1781176"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="218" name="Rectangle 217"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4267200" y="4486275"/>
-            <a:ext cx="1733550" cy="1781176"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="219" name="Rectangle 218"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4343400" y="4686301"/>
-            <a:ext cx="1638300" cy="209549"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="7030A0"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>Dialog lưu ván</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t> đấu</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="220" name="Rectangle 219"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4429124" y="5838826"/>
-            <a:ext cx="552451" cy="257173"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t>Có</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="221" name="Rectangle 220"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4419600" y="5048251"/>
-            <a:ext cx="1304925" cy="466723"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t>Bạn có muốn lưu ván đấu </a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="222" name="Rectangle 221"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5095874" y="5829301"/>
-            <a:ext cx="619126" cy="257173"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t>Không</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10062,13 +9383,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10123,13 +9444,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>152402</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10180,13 +9501,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10245,13 +9566,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10319,13 +9640,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10376,13 +9697,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>57148</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10436,13 +9757,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10491,13 +9812,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10546,13 +9867,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>102869</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10600,13 +9921,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10655,13 +9976,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10710,13 +10031,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10764,13 +10085,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10828,13 +10149,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10885,13 +10206,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>142872</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10945,13 +10266,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>133347</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11005,13 +10326,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11062,13 +10383,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11108,7 +10429,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>1</a:t>
+            <a:t>2</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11119,13 +10440,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -11135,7 +10456,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18297525" y="18592800"/>
+          <a:off x="18297525" y="18802350"/>
           <a:ext cx="1733550" cy="1781176"/>
           <a:chOff x="4267200" y="4486275"/>
           <a:chExt cx="1733550" cy="1781176"/>
@@ -11366,15 +10687,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11428,15 +10749,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11490,15 +10811,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11552,15 +10873,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11618,15 +10939,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11684,15 +11005,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11750,15 +11071,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11816,15 +11137,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11882,15 +11203,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11941,6 +11262,959 @@
               <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="387" name="Group 386"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4876800" y="18249900"/>
+          <a:ext cx="1733550" cy="2038350"/>
+          <a:chOff x="4886325" y="16535400"/>
+          <a:chExt cx="1733550" cy="2038350"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="389" name="Rectangle 388"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4886325" y="16535400"/>
+            <a:ext cx="1733550" cy="2038350"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="390" name="Rectangle 389"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4895850" y="16735425"/>
+            <a:ext cx="1647825" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Dialog cộng/trừ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> điểm</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="391" name="Rectangle 390"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5105401" y="17106901"/>
+            <a:ext cx="1085850" cy="247648"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>Điểm</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="392" name="Rectangle 391"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4895849" y="18126074"/>
+            <a:ext cx="866776" cy="257173"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>Cộng /trừ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="393" name="Rectangle 392"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5991224" y="18116549"/>
+            <a:ext cx="619126" cy="257173"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>Cancel</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="394" name="Rectangle 393"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5467351" y="17430751"/>
+            <a:ext cx="285749" cy="247648"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="395" name="Rectangle 394"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5467351" y="17678401"/>
+            <a:ext cx="285749" cy="247648"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>2</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="396" name="Group 395"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6705600" y="18440400"/>
+          <a:ext cx="1733550" cy="1781176"/>
+          <a:chOff x="4267200" y="4486275"/>
+          <a:chExt cx="1733550" cy="1781176"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="397" name="Rectangle 396"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4267200" y="4486275"/>
+            <a:ext cx="1733550" cy="1781176"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="398" name="Rectangle 397"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4343400" y="4686301"/>
+            <a:ext cx="1638300" cy="209549"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Dialog lưu ván</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> đấu</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="399" name="Rectangle 398"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4429124" y="5838826"/>
+            <a:ext cx="552451" cy="257173"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>Có</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="400" name="Rectangle 399"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4419600" y="5048251"/>
+            <a:ext cx="1304925" cy="466723"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>Bạn có muốn lưu ván đấu </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="401" name="Rectangle 400"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5095874" y="5829301"/>
+            <a:ext cx="619126" cy="257173"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>Không</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="402" name="Group 401"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8553450" y="18888075"/>
+          <a:ext cx="1733550" cy="1352550"/>
+          <a:chOff x="7334250" y="10820401"/>
+          <a:chExt cx="1733550" cy="1352550"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="403" name="Rectangle 402"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7334250" y="10820401"/>
+            <a:ext cx="1733550" cy="1352550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="404" name="Rectangle 403"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7343775" y="10953751"/>
+            <a:ext cx="1647825" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Dialog confirm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> save</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="405" name="Rectangle 404"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7391400" y="11249025"/>
+            <a:ext cx="1562099" cy="485775"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>Bạn có muốn lưu thông tin ván đấu</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="406" name="Rectangle 405"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7496174" y="11801475"/>
+            <a:ext cx="552451" cy="257173"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>Yes </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="407" name="Rectangle 406"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8162924" y="11791950"/>
+            <a:ext cx="619126" cy="257173"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>No</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>47623</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="408" name="Rectangle 407"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18935700" y="13449300"/>
+          <a:ext cx="1457326" cy="257173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Tính điểm bottom</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>57148</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="409" name="Rectangle 408"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20421600" y="13458825"/>
+          <a:ext cx="1457326" cy="257173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Tính thời gian bottom</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12211,16 +12485,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:AH92"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:AT115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N43" workbookViewId="0">
-      <selection activeCell="AL68" sqref="AL68"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="J119" sqref="J119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="24" max="24" width="9.140625" customWidth="1"/>
+    <col min="1" max="23" width="9.140625" style="13"/>
+    <col min="24" max="24" width="9.140625" style="13" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -12242,9 +12518,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="6" t="s">
-        <v>1</v>
-      </c>
+      <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -12257,9 +12531,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -12272,9 +12544,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -12299,7 +12569,9 @@
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="G8" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -12312,7 +12584,9 @@
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -12325,7 +12599,9 @@
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -12640,7 +12916,7 @@
       <c r="O32" s="5"/>
       <c r="P32" s="7"/>
     </row>
-    <row r="33" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -12655,7 +12931,7 @@
       <c r="O33" s="5"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -12670,7 +12946,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="7"/>
     </row>
-    <row r="35" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -12685,7 +12961,7 @@
       <c r="O35" s="5"/>
       <c r="P35" s="7"/>
     </row>
-    <row r="36" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -12700,7 +12976,7 @@
       <c r="O36" s="5"/>
       <c r="P36" s="7"/>
     </row>
-    <row r="37" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -12715,7 +12991,7 @@
       <c r="O37" s="5"/>
       <c r="P37" s="7"/>
     </row>
-    <row r="38" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -12730,7 +13006,7 @@
       <c r="O38" s="5"/>
       <c r="P38" s="7"/>
     </row>
-    <row r="39" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -12745,7 +13021,7 @@
       <c r="O39" s="5"/>
       <c r="P39" s="7"/>
     </row>
-    <row r="40" spans="4:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D40" s="8"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
@@ -12760,128 +13036,3022 @@
       <c r="O40" s="9"/>
       <c r="P40" s="10"/>
     </row>
-    <row r="41" spans="4:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="4:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="4:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="5" t="s">
+    <row r="41" spans="4:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="4:46" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="4:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="3"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="2"/>
+      <c r="AH43" s="2"/>
+      <c r="AI43" s="2"/>
+      <c r="AJ43" s="2"/>
+      <c r="AK43" s="2"/>
+      <c r="AL43" s="2"/>
+      <c r="AM43" s="2"/>
+      <c r="AN43" s="2"/>
+      <c r="AO43" s="2"/>
+      <c r="AP43" s="2"/>
+      <c r="AQ43" s="2"/>
+      <c r="AR43" s="2"/>
+      <c r="AS43" s="2"/>
+      <c r="AT43" s="3"/>
     </row>
-    <row r="44" spans="4:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D44" s="11" t="s">
         <v>10</v>
       </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="7"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="5"/>
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="5"/>
+      <c r="AK44" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL44" s="5"/>
+      <c r="AM44" s="5"/>
+      <c r="AN44" s="5"/>
+      <c r="AO44" s="5"/>
+      <c r="AP44" s="5"/>
+      <c r="AQ44" s="5"/>
+      <c r="AR44" s="5"/>
+      <c r="AS44" s="5"/>
+      <c r="AT44" s="7"/>
     </row>
-    <row r="45" spans="4:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D45" s="11" t="s">
         <v>11</v>
       </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="7"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="5"/>
+      <c r="AG45" s="5"/>
+      <c r="AH45" s="5"/>
+      <c r="AI45" s="5"/>
+      <c r="AJ45" s="5"/>
+      <c r="AK45" s="5"/>
+      <c r="AL45" s="5"/>
+      <c r="AM45" s="5"/>
+      <c r="AN45" s="5"/>
+      <c r="AO45" s="5"/>
+      <c r="AP45" s="5"/>
+      <c r="AQ45" s="5"/>
+      <c r="AR45" s="5"/>
+      <c r="AS45" s="5"/>
+      <c r="AT45" s="7"/>
     </row>
-    <row r="46" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D46" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Z46" s="5" t="s">
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="7"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="5"/>
+      <c r="AF46" s="5"/>
+      <c r="AG46" s="5"/>
+      <c r="AH46" s="5"/>
+      <c r="AI46" s="5"/>
+      <c r="AJ46" s="5"/>
+      <c r="AK46" s="5"/>
+      <c r="AL46" s="5"/>
+      <c r="AM46" s="5"/>
+      <c r="AN46" s="5"/>
+      <c r="AO46" s="5"/>
+      <c r="AP46" s="5"/>
+      <c r="AQ46" s="5"/>
+      <c r="AR46" s="5"/>
+      <c r="AS46" s="5"/>
+      <c r="AT46" s="7"/>
+    </row>
+    <row r="47" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D47" s="4"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="7"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="5"/>
+      <c r="AF47" s="5"/>
+      <c r="AG47" s="5"/>
+      <c r="AH47" s="5"/>
+      <c r="AI47" s="5"/>
+      <c r="AJ47" s="5"/>
+      <c r="AK47" s="5"/>
+      <c r="AL47" s="5"/>
+      <c r="AM47" s="5"/>
+      <c r="AN47" s="5"/>
+      <c r="AO47" s="5"/>
+      <c r="AP47" s="5"/>
+      <c r="AQ47" s="5"/>
+      <c r="AR47" s="5"/>
+      <c r="AS47" s="5"/>
+      <c r="AT47" s="7"/>
+    </row>
+    <row r="48" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D48" s="4"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="7"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="5"/>
+      <c r="AH48" s="5"/>
+      <c r="AI48" s="5"/>
+      <c r="AJ48" s="5"/>
+      <c r="AK48" s="5"/>
+      <c r="AL48" s="5"/>
+      <c r="AM48" s="5"/>
+      <c r="AN48" s="5"/>
+      <c r="AO48" s="5"/>
+      <c r="AP48" s="5"/>
+      <c r="AQ48" s="5"/>
+      <c r="AR48" s="5"/>
+      <c r="AS48" s="5"/>
+      <c r="AT48" s="7"/>
+    </row>
+    <row r="49" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D49" s="4"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="7"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="5"/>
+      <c r="AH49" s="5"/>
+      <c r="AI49" s="5"/>
+      <c r="AJ49" s="5"/>
+      <c r="AK49" s="5"/>
+      <c r="AL49" s="5"/>
+      <c r="AM49" s="5"/>
+      <c r="AN49" s="5"/>
+      <c r="AO49" s="5"/>
+      <c r="AP49" s="5"/>
+      <c r="AQ49" s="5"/>
+      <c r="AR49" s="5"/>
+      <c r="AS49" s="5"/>
+      <c r="AT49" s="7"/>
+    </row>
+    <row r="50" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D50" s="4"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="7"/>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="5"/>
+      <c r="AG50" s="5"/>
+      <c r="AH50" s="5"/>
+      <c r="AI50" s="5"/>
+      <c r="AJ50" s="5"/>
+      <c r="AK50" s="5"/>
+      <c r="AL50" s="5"/>
+      <c r="AM50" s="5"/>
+      <c r="AN50" s="5"/>
+      <c r="AO50" s="5"/>
+      <c r="AP50" s="5"/>
+      <c r="AQ50" s="5"/>
+      <c r="AR50" s="5"/>
+      <c r="AS50" s="5"/>
+      <c r="AT50" s="7"/>
+    </row>
+    <row r="51" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D51" s="4"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="7"/>
+      <c r="Z51" s="4"/>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5"/>
+      <c r="AE51" s="5"/>
+      <c r="AF51" s="5"/>
+      <c r="AG51" s="5"/>
+      <c r="AH51" s="5"/>
+      <c r="AI51" s="5"/>
+      <c r="AJ51" s="5"/>
+      <c r="AK51" s="5"/>
+      <c r="AL51" s="5"/>
+      <c r="AM51" s="5"/>
+      <c r="AN51" s="5"/>
+      <c r="AO51" s="5"/>
+      <c r="AP51" s="5"/>
+      <c r="AQ51" s="5"/>
+      <c r="AR51" s="5"/>
+      <c r="AS51" s="5"/>
+      <c r="AT51" s="7"/>
+    </row>
+    <row r="52" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D52" s="4"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="7"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="5"/>
+      <c r="AG52" s="5"/>
+      <c r="AH52" s="5"/>
+      <c r="AI52" s="5"/>
+      <c r="AJ52" s="5"/>
+      <c r="AK52" s="5"/>
+      <c r="AL52" s="5"/>
+      <c r="AM52" s="5"/>
+      <c r="AN52" s="5"/>
+      <c r="AO52" s="5"/>
+      <c r="AP52" s="5"/>
+      <c r="AQ52" s="5"/>
+      <c r="AR52" s="5"/>
+      <c r="AS52" s="5"/>
+      <c r="AT52" s="7"/>
+    </row>
+    <row r="53" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D53" s="4"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="7"/>
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="5"/>
+      <c r="AH53" s="5"/>
+      <c r="AI53" s="5"/>
+      <c r="AJ53" s="5"/>
+      <c r="AK53" s="5"/>
+      <c r="AL53" s="5"/>
+      <c r="AM53" s="5"/>
+      <c r="AN53" s="5"/>
+      <c r="AO53" s="5"/>
+      <c r="AP53" s="5"/>
+      <c r="AQ53" s="5"/>
+      <c r="AR53" s="5"/>
+      <c r="AS53" s="5"/>
+      <c r="AT53" s="7"/>
+    </row>
+    <row r="54" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D54" s="4"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="7"/>
+      <c r="Z54" s="4"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
+      <c r="AG54" s="5"/>
+      <c r="AH54" s="5"/>
+      <c r="AI54" s="5"/>
+      <c r="AJ54" s="5"/>
+      <c r="AK54" s="5"/>
+      <c r="AL54" s="5"/>
+      <c r="AM54" s="5"/>
+      <c r="AN54" s="5"/>
+      <c r="AO54" s="5"/>
+      <c r="AP54" s="5"/>
+      <c r="AQ54" s="5"/>
+      <c r="AR54" s="5"/>
+      <c r="AS54" s="5"/>
+      <c r="AT54" s="7"/>
+    </row>
+    <row r="55" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D55" s="4"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="7"/>
+      <c r="Z55" s="4"/>
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="5"/>
+      <c r="AC55" s="5"/>
+      <c r="AD55" s="5"/>
+      <c r="AE55" s="5"/>
+      <c r="AF55" s="5"/>
+      <c r="AG55" s="5"/>
+      <c r="AH55" s="5"/>
+      <c r="AI55" s="5"/>
+      <c r="AJ55" s="5"/>
+      <c r="AK55" s="5"/>
+      <c r="AL55" s="5"/>
+      <c r="AM55" s="5"/>
+      <c r="AN55" s="5"/>
+      <c r="AO55" s="5"/>
+      <c r="AP55" s="5"/>
+      <c r="AQ55" s="5"/>
+      <c r="AR55" s="5"/>
+      <c r="AS55" s="5"/>
+      <c r="AT55" s="7"/>
+    </row>
+    <row r="56" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D56" s="4"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="7"/>
+      <c r="Z56" s="4"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="5"/>
+      <c r="AG56" s="5"/>
+      <c r="AH56" s="5"/>
+      <c r="AI56" s="5"/>
+      <c r="AJ56" s="5"/>
+      <c r="AK56" s="5"/>
+      <c r="AL56" s="5"/>
+      <c r="AM56" s="5"/>
+      <c r="AN56" s="5"/>
+      <c r="AO56" s="5"/>
+      <c r="AP56" s="5"/>
+      <c r="AQ56" s="5"/>
+      <c r="AR56" s="5"/>
+      <c r="AS56" s="5"/>
+      <c r="AT56" s="7"/>
+    </row>
+    <row r="57" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D57" s="4"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="7"/>
+      <c r="Z57" s="4"/>
+      <c r="AA57" s="5"/>
+      <c r="AB57" s="5"/>
+      <c r="AC57" s="5"/>
+      <c r="AD57" s="5"/>
+      <c r="AE57" s="5"/>
+      <c r="AF57" s="5"/>
+      <c r="AG57" s="5"/>
+      <c r="AH57" s="5"/>
+      <c r="AI57" s="5"/>
+      <c r="AJ57" s="5"/>
+      <c r="AK57" s="5"/>
+      <c r="AL57" s="5"/>
+      <c r="AM57" s="5"/>
+      <c r="AN57" s="5"/>
+      <c r="AO57" s="5"/>
+      <c r="AP57" s="5"/>
+      <c r="AQ57" s="5"/>
+      <c r="AR57" s="5"/>
+      <c r="AS57" s="5"/>
+      <c r="AT57" s="7"/>
+    </row>
+    <row r="58" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D58" s="4"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="7"/>
+      <c r="Z58" s="4"/>
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="5"/>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="5"/>
+      <c r="AG58" s="5"/>
+      <c r="AH58" s="5"/>
+      <c r="AI58" s="5"/>
+      <c r="AJ58" s="5"/>
+      <c r="AK58" s="5"/>
+      <c r="AL58" s="5"/>
+      <c r="AM58" s="5"/>
+      <c r="AN58" s="5"/>
+      <c r="AO58" s="5"/>
+      <c r="AP58" s="5"/>
+      <c r="AQ58" s="5"/>
+      <c r="AR58" s="5"/>
+      <c r="AS58" s="5"/>
+      <c r="AT58" s="7"/>
+    </row>
+    <row r="59" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D59" s="4"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
+      <c r="X59" s="7"/>
+      <c r="Z59" s="4"/>
+      <c r="AA59" s="5"/>
+      <c r="AB59" s="5"/>
+      <c r="AC59" s="5"/>
+      <c r="AD59" s="5"/>
+      <c r="AE59" s="5"/>
+      <c r="AF59" s="5"/>
+      <c r="AG59" s="5"/>
+      <c r="AH59" s="5"/>
+      <c r="AI59" s="5"/>
+      <c r="AJ59" s="5"/>
+      <c r="AK59" s="5"/>
+      <c r="AL59" s="5"/>
+      <c r="AM59" s="5"/>
+      <c r="AN59" s="5"/>
+      <c r="AO59" s="5"/>
+      <c r="AP59" s="5"/>
+      <c r="AQ59" s="5"/>
+      <c r="AR59" s="5"/>
+      <c r="AS59" s="5"/>
+      <c r="AT59" s="7"/>
+    </row>
+    <row r="60" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D60" s="4"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+      <c r="X60" s="7"/>
+      <c r="Z60" s="4"/>
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="5"/>
+      <c r="AC60" s="5"/>
+      <c r="AD60" s="5"/>
+      <c r="AE60" s="5"/>
+      <c r="AF60" s="5"/>
+      <c r="AG60" s="5"/>
+      <c r="AH60" s="5"/>
+      <c r="AI60" s="5"/>
+      <c r="AJ60" s="5"/>
+      <c r="AK60" s="5"/>
+      <c r="AL60" s="5"/>
+      <c r="AM60" s="5"/>
+      <c r="AN60" s="5"/>
+      <c r="AO60" s="5"/>
+      <c r="AP60" s="5"/>
+      <c r="AQ60" s="5"/>
+      <c r="AR60" s="5"/>
+      <c r="AS60" s="5"/>
+      <c r="AT60" s="7"/>
+    </row>
+    <row r="61" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D61" s="4"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+      <c r="W61" s="5"/>
+      <c r="X61" s="7"/>
+      <c r="Z61" s="4"/>
+      <c r="AA61" s="5"/>
+      <c r="AB61" s="5"/>
+      <c r="AC61" s="5"/>
+      <c r="AD61" s="5"/>
+      <c r="AE61" s="5"/>
+      <c r="AF61" s="5"/>
+      <c r="AG61" s="5"/>
+      <c r="AH61" s="5"/>
+      <c r="AI61" s="5"/>
+      <c r="AJ61" s="5"/>
+      <c r="AK61" s="5"/>
+      <c r="AL61" s="5"/>
+      <c r="AM61" s="5"/>
+      <c r="AN61" s="5"/>
+      <c r="AO61" s="5"/>
+      <c r="AP61" s="5"/>
+      <c r="AQ61" s="5"/>
+      <c r="AR61" s="5"/>
+      <c r="AS61" s="5"/>
+      <c r="AT61" s="7"/>
+    </row>
+    <row r="62" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D62" s="4"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="7"/>
+      <c r="Z62" s="4"/>
+      <c r="AA62" s="5"/>
+      <c r="AB62" s="5"/>
+      <c r="AC62" s="5"/>
+      <c r="AD62" s="5"/>
+      <c r="AE62" s="5"/>
+      <c r="AF62" s="5"/>
+      <c r="AG62" s="5"/>
+      <c r="AH62" s="5"/>
+      <c r="AI62" s="5"/>
+      <c r="AJ62" s="5"/>
+      <c r="AK62" s="5"/>
+      <c r="AL62" s="5"/>
+      <c r="AM62" s="5"/>
+      <c r="AN62" s="5"/>
+      <c r="AO62" s="5"/>
+      <c r="AP62" s="5"/>
+      <c r="AQ62" s="5"/>
+      <c r="AR62" s="5"/>
+      <c r="AS62" s="5"/>
+      <c r="AT62" s="7"/>
+    </row>
+    <row r="63" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D63" s="4"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+      <c r="W63" s="5"/>
+      <c r="X63" s="7"/>
+      <c r="Z63" s="4"/>
+      <c r="AA63" s="5"/>
+      <c r="AB63" s="5"/>
+      <c r="AC63" s="5"/>
+      <c r="AD63" s="5"/>
+      <c r="AE63" s="5"/>
+      <c r="AF63" s="5"/>
+      <c r="AG63" s="5"/>
+      <c r="AH63" s="5"/>
+      <c r="AI63" s="5"/>
+      <c r="AJ63" s="5"/>
+      <c r="AK63" s="5"/>
+      <c r="AL63" s="5"/>
+      <c r="AM63" s="5"/>
+      <c r="AN63" s="5"/>
+      <c r="AO63" s="5"/>
+      <c r="AP63" s="5"/>
+      <c r="AQ63" s="5"/>
+      <c r="AR63" s="5"/>
+      <c r="AS63" s="5"/>
+      <c r="AT63" s="7"/>
+    </row>
+    <row r="64" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D64" s="4"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="7"/>
+      <c r="Z64" s="4"/>
+      <c r="AA64" s="5"/>
+      <c r="AB64" s="5"/>
+      <c r="AC64" s="5"/>
+      <c r="AD64" s="5"/>
+      <c r="AE64" s="5"/>
+      <c r="AF64" s="5"/>
+      <c r="AG64" s="5"/>
+      <c r="AH64" s="5"/>
+      <c r="AI64" s="5"/>
+      <c r="AJ64" s="5"/>
+      <c r="AK64" s="5"/>
+      <c r="AL64" s="5"/>
+      <c r="AM64" s="5"/>
+      <c r="AN64" s="5"/>
+      <c r="AO64" s="5"/>
+      <c r="AP64" s="5"/>
+      <c r="AQ64" s="5"/>
+      <c r="AR64" s="5"/>
+      <c r="AS64" s="5"/>
+      <c r="AT64" s="7"/>
+    </row>
+    <row r="65" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D65" s="4"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+      <c r="W65" s="5"/>
+      <c r="X65" s="7"/>
+      <c r="Z65" s="4"/>
+      <c r="AA65" s="5"/>
+      <c r="AB65" s="5"/>
+      <c r="AC65" s="5"/>
+      <c r="AD65" s="5"/>
+      <c r="AE65" s="5"/>
+      <c r="AF65" s="5"/>
+      <c r="AG65" s="5"/>
+      <c r="AH65" s="5"/>
+      <c r="AI65" s="5"/>
+      <c r="AJ65" s="5"/>
+      <c r="AK65" s="5"/>
+      <c r="AL65" s="5"/>
+      <c r="AM65" s="5"/>
+      <c r="AN65" s="5"/>
+      <c r="AO65" s="5"/>
+      <c r="AP65" s="5"/>
+      <c r="AQ65" s="5"/>
+      <c r="AR65" s="5"/>
+      <c r="AS65" s="5"/>
+      <c r="AT65" s="7"/>
+    </row>
+    <row r="66" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D66" s="4"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="7"/>
+      <c r="Z66" s="4"/>
+      <c r="AA66" s="5"/>
+      <c r="AB66" s="5"/>
+      <c r="AC66" s="5"/>
+      <c r="AD66" s="5"/>
+      <c r="AE66" s="5"/>
+      <c r="AF66" s="5"/>
+      <c r="AG66" s="5"/>
+      <c r="AH66" s="5"/>
+      <c r="AI66" s="5"/>
+      <c r="AJ66" s="5"/>
+      <c r="AK66" s="5"/>
+      <c r="AL66" s="5"/>
+      <c r="AM66" s="5"/>
+      <c r="AN66" s="5"/>
+      <c r="AO66" s="5"/>
+      <c r="AP66" s="5"/>
+      <c r="AQ66" s="5"/>
+      <c r="AR66" s="5"/>
+      <c r="AS66" s="5"/>
+      <c r="AT66" s="7"/>
+    </row>
+    <row r="67" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D67" s="4"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+      <c r="W67" s="5"/>
+      <c r="X67" s="7"/>
+      <c r="Z67" s="4"/>
+      <c r="AA67" s="5"/>
+      <c r="AB67" s="5"/>
+      <c r="AC67" s="5"/>
+      <c r="AD67" s="5"/>
+      <c r="AE67" s="5"/>
+      <c r="AF67" s="5"/>
+      <c r="AG67" s="5"/>
+      <c r="AH67" s="5"/>
+      <c r="AI67" s="5"/>
+      <c r="AJ67" s="5"/>
+      <c r="AK67" s="5"/>
+      <c r="AL67" s="5"/>
+      <c r="AM67" s="5"/>
+      <c r="AN67" s="5"/>
+      <c r="AO67" s="5"/>
+      <c r="AP67" s="5"/>
+      <c r="AQ67" s="5"/>
+      <c r="AR67" s="5"/>
+      <c r="AS67" s="5"/>
+      <c r="AT67" s="7"/>
+    </row>
+    <row r="68" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D68" s="4"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+      <c r="W68" s="5"/>
+      <c r="X68" s="7"/>
+      <c r="Z68" s="4"/>
+      <c r="AA68" s="5"/>
+      <c r="AB68" s="5"/>
+      <c r="AC68" s="5"/>
+      <c r="AD68" s="5"/>
+      <c r="AE68" s="5"/>
+      <c r="AF68" s="5"/>
+      <c r="AG68" s="5"/>
+      <c r="AH68" s="5"/>
+      <c r="AI68" s="5"/>
+      <c r="AJ68" s="5"/>
+      <c r="AK68" s="5"/>
+      <c r="AL68" s="5"/>
+      <c r="AM68" s="5"/>
+      <c r="AN68" s="5"/>
+      <c r="AO68" s="5"/>
+      <c r="AP68" s="5"/>
+      <c r="AQ68" s="5"/>
+      <c r="AR68" s="5"/>
+      <c r="AS68" s="5"/>
+      <c r="AT68" s="7"/>
+    </row>
+    <row r="69" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D69" s="4"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
+      <c r="W69" s="5"/>
+      <c r="X69" s="7"/>
+      <c r="Z69" s="4"/>
+      <c r="AA69" s="5"/>
+      <c r="AB69" s="5"/>
+      <c r="AC69" s="5"/>
+      <c r="AD69" s="5"/>
+      <c r="AE69" s="5"/>
+      <c r="AF69" s="5"/>
+      <c r="AG69" s="5"/>
+      <c r="AH69" s="5"/>
+      <c r="AI69" s="5"/>
+      <c r="AJ69" s="5"/>
+      <c r="AK69" s="5"/>
+      <c r="AL69" s="5"/>
+      <c r="AM69" s="5"/>
+      <c r="AN69" s="5"/>
+      <c r="AO69" s="5"/>
+      <c r="AP69" s="5"/>
+      <c r="AQ69" s="5"/>
+      <c r="AR69" s="5"/>
+      <c r="AS69" s="5"/>
+      <c r="AT69" s="7"/>
+    </row>
+    <row r="70" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D70" s="4"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+      <c r="W70" s="5"/>
+      <c r="X70" s="7"/>
+      <c r="Z70" s="4"/>
+      <c r="AA70" s="5"/>
+      <c r="AB70" s="5"/>
+      <c r="AC70" s="5"/>
+      <c r="AD70" s="5"/>
+      <c r="AE70" s="5"/>
+      <c r="AF70" s="5"/>
+      <c r="AG70" s="5"/>
+      <c r="AH70" s="5"/>
+      <c r="AI70" s="5"/>
+      <c r="AJ70" s="5"/>
+      <c r="AK70" s="5"/>
+      <c r="AL70" s="5"/>
+      <c r="AM70" s="5"/>
+      <c r="AN70" s="5"/>
+      <c r="AO70" s="5"/>
+      <c r="AP70" s="5"/>
+      <c r="AQ70" s="5"/>
+      <c r="AR70" s="5"/>
+      <c r="AS70" s="5"/>
+      <c r="AT70" s="7"/>
+    </row>
+    <row r="71" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D71" s="4"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
+      <c r="X71" s="7"/>
+      <c r="Z71" s="4"/>
+      <c r="AA71" s="5"/>
+      <c r="AB71" s="5"/>
+      <c r="AC71" s="5"/>
+      <c r="AD71" s="5"/>
+      <c r="AE71" s="5"/>
+      <c r="AF71" s="5"/>
+      <c r="AG71" s="5"/>
+      <c r="AH71" s="5"/>
+      <c r="AI71" s="5"/>
+      <c r="AJ71" s="5"/>
+      <c r="AK71" s="5"/>
+      <c r="AL71" s="5"/>
+      <c r="AM71" s="5"/>
+      <c r="AN71" s="5"/>
+      <c r="AO71" s="5"/>
+      <c r="AP71" s="5"/>
+      <c r="AQ71" s="5"/>
+      <c r="AR71" s="5"/>
+      <c r="AS71" s="5"/>
+      <c r="AT71" s="7"/>
+    </row>
+    <row r="72" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D72" s="4"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
+      <c r="V72" s="5"/>
+      <c r="W72" s="5"/>
+      <c r="X72" s="7"/>
+      <c r="Z72" s="4"/>
+      <c r="AA72" s="5"/>
+      <c r="AB72" s="5"/>
+      <c r="AC72" s="5"/>
+      <c r="AD72" s="5"/>
+      <c r="AE72" s="5"/>
+      <c r="AF72" s="5"/>
+      <c r="AG72" s="5"/>
+      <c r="AH72" s="5"/>
+      <c r="AI72" s="5"/>
+      <c r="AJ72" s="5"/>
+      <c r="AK72" s="5"/>
+      <c r="AL72" s="5"/>
+      <c r="AM72" s="5"/>
+      <c r="AN72" s="5"/>
+      <c r="AO72" s="5"/>
+      <c r="AP72" s="5"/>
+      <c r="AQ72" s="5"/>
+      <c r="AR72" s="5"/>
+      <c r="AS72" s="5"/>
+      <c r="AT72" s="7"/>
+    </row>
+    <row r="73" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D73" s="4"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="5"/>
+      <c r="V73" s="5"/>
+      <c r="W73" s="5"/>
+      <c r="X73" s="7"/>
+      <c r="Z73" s="4"/>
+      <c r="AA73" s="5"/>
+      <c r="AB73" s="5"/>
+      <c r="AC73" s="5"/>
+      <c r="AD73" s="5"/>
+      <c r="AE73" s="5"/>
+      <c r="AF73" s="5"/>
+      <c r="AG73" s="5"/>
+      <c r="AH73" s="5"/>
+      <c r="AI73" s="5"/>
+      <c r="AJ73" s="5"/>
+      <c r="AK73" s="5"/>
+      <c r="AL73" s="5"/>
+      <c r="AM73" s="5"/>
+      <c r="AN73" s="5"/>
+      <c r="AO73" s="5"/>
+      <c r="AP73" s="5"/>
+      <c r="AQ73" s="5"/>
+      <c r="AR73" s="5"/>
+      <c r="AS73" s="5"/>
+      <c r="AT73" s="7"/>
+    </row>
+    <row r="74" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D74" s="4"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+      <c r="W74" s="5"/>
+      <c r="X74" s="7"/>
+      <c r="Z74" s="4"/>
+      <c r="AA74" s="5"/>
+      <c r="AB74" s="5"/>
+      <c r="AC74" s="5"/>
+      <c r="AD74" s="5"/>
+      <c r="AE74" s="5"/>
+      <c r="AF74" s="5"/>
+      <c r="AG74" s="5"/>
+      <c r="AH74" s="5"/>
+      <c r="AI74" s="5"/>
+      <c r="AJ74" s="5"/>
+      <c r="AK74" s="5"/>
+      <c r="AL74" s="5"/>
+      <c r="AM74" s="5"/>
+      <c r="AN74" s="5"/>
+      <c r="AO74" s="5"/>
+      <c r="AP74" s="5"/>
+      <c r="AQ74" s="5"/>
+      <c r="AR74" s="5"/>
+      <c r="AS74" s="5"/>
+      <c r="AT74" s="7"/>
+    </row>
+    <row r="75" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D75" s="4"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+      <c r="W75" s="5"/>
+      <c r="X75" s="7"/>
+      <c r="Z75" s="4"/>
+      <c r="AA75" s="5"/>
+      <c r="AB75" s="5"/>
+      <c r="AC75" s="5"/>
+      <c r="AD75" s="5"/>
+      <c r="AE75" s="5"/>
+      <c r="AF75" s="5"/>
+      <c r="AG75" s="5"/>
+      <c r="AH75" s="5"/>
+      <c r="AI75" s="5"/>
+      <c r="AJ75" s="5"/>
+      <c r="AK75" s="5"/>
+      <c r="AL75" s="5"/>
+      <c r="AM75" s="5"/>
+      <c r="AN75" s="5"/>
+      <c r="AO75" s="5"/>
+      <c r="AP75" s="5"/>
+      <c r="AQ75" s="5"/>
+      <c r="AR75" s="5"/>
+      <c r="AS75" s="5"/>
+      <c r="AT75" s="7"/>
+    </row>
+    <row r="76" spans="4:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D76" s="8"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="9"/>
+      <c r="U76" s="9"/>
+      <c r="V76" s="9"/>
+      <c r="W76" s="9"/>
+      <c r="X76" s="10"/>
+      <c r="Z76" s="8"/>
+      <c r="AA76" s="9"/>
+      <c r="AB76" s="9"/>
+      <c r="AC76" s="9"/>
+      <c r="AD76" s="9"/>
+      <c r="AE76" s="9"/>
+      <c r="AF76" s="9"/>
+      <c r="AG76" s="9"/>
+      <c r="AH76" s="9"/>
+      <c r="AI76" s="9"/>
+      <c r="AJ76" s="9"/>
+      <c r="AK76" s="9"/>
+      <c r="AL76" s="9"/>
+      <c r="AM76" s="9"/>
+      <c r="AN76" s="9"/>
+      <c r="AO76" s="9"/>
+      <c r="AP76" s="9"/>
+      <c r="AQ76" s="9"/>
+      <c r="AR76" s="9"/>
+      <c r="AS76" s="9"/>
+      <c r="AT76" s="10"/>
+    </row>
+    <row r="78" spans="4:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D79" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="3"/>
+      <c r="Z79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA79" s="2"/>
+      <c r="AB79" s="2"/>
+      <c r="AC79" s="2"/>
+      <c r="AD79" s="2"/>
+      <c r="AE79" s="2"/>
+      <c r="AF79" s="2"/>
+      <c r="AG79" s="2"/>
+      <c r="AH79" s="2"/>
+      <c r="AI79" s="2"/>
+      <c r="AJ79" s="2"/>
+      <c r="AK79" s="2"/>
+      <c r="AL79" s="2"/>
+      <c r="AM79" s="2"/>
+      <c r="AN79" s="2"/>
+      <c r="AO79" s="2"/>
+      <c r="AP79" s="2"/>
+      <c r="AQ79" s="2"/>
+      <c r="AR79" s="2"/>
+      <c r="AS79" s="2"/>
+      <c r="AT79" s="3"/>
     </row>
-    <row r="47" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="AE47" t="s">
+    <row r="80" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D80" s="4"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="5"/>
+      <c r="V80" s="5"/>
+      <c r="W80" s="5"/>
+      <c r="X80" s="7"/>
+      <c r="Z80" s="4"/>
+      <c r="AA80" s="5"/>
+      <c r="AB80" s="5"/>
+      <c r="AC80" s="5"/>
+      <c r="AD80" s="5"/>
+      <c r="AE80" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF80" s="5"/>
+      <c r="AG80" s="5"/>
+      <c r="AH80" s="5"/>
+      <c r="AI80" s="5"/>
+      <c r="AJ80" s="5"/>
+      <c r="AK80" s="5"/>
+      <c r="AL80" s="5"/>
+      <c r="AM80" s="5"/>
+      <c r="AN80" s="5"/>
+      <c r="AO80" s="5"/>
+      <c r="AP80" s="5"/>
+      <c r="AQ80" s="5"/>
+      <c r="AR80" s="5"/>
+      <c r="AS80" s="5"/>
+      <c r="AT80" s="7"/>
     </row>
-    <row r="48" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="AE48" t="s">
+    <row r="81" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D81" s="4"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="5"/>
+      <c r="S81" s="5"/>
+      <c r="T81" s="5"/>
+      <c r="U81" s="5"/>
+      <c r="V81" s="5"/>
+      <c r="W81" s="5"/>
+      <c r="X81" s="7"/>
+      <c r="Z81" s="4"/>
+      <c r="AA81" s="5"/>
+      <c r="AB81" s="5"/>
+      <c r="AC81" s="5"/>
+      <c r="AD81" s="5"/>
+      <c r="AE81" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF81" s="5"/>
+      <c r="AG81" s="5"/>
+      <c r="AH81" s="5"/>
+      <c r="AI81" s="5"/>
+      <c r="AJ81" s="5"/>
+      <c r="AK81" s="5"/>
+      <c r="AL81" s="5"/>
+      <c r="AM81" s="5"/>
+      <c r="AN81" s="5"/>
+      <c r="AO81" s="5"/>
+      <c r="AP81" s="5"/>
+      <c r="AQ81" s="5"/>
+      <c r="AR81" s="5"/>
+      <c r="AS81" s="5"/>
+      <c r="AT81" s="7"/>
     </row>
-    <row r="50" spans="31:34" x14ac:dyDescent="0.25">
-      <c r="AE50" t="s">
+    <row r="82" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D82" s="4"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5"/>
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="5"/>
+      <c r="V82" s="5"/>
+      <c r="W82" s="5"/>
+      <c r="X82" s="7"/>
+      <c r="Z82" s="4"/>
+      <c r="AA82" s="5"/>
+      <c r="AB82" s="5"/>
+      <c r="AC82" s="5"/>
+      <c r="AD82" s="5"/>
+      <c r="AE82" s="5"/>
+      <c r="AF82" s="5"/>
+      <c r="AG82" s="5"/>
+      <c r="AH82" s="5"/>
+      <c r="AI82" s="5"/>
+      <c r="AJ82" s="5"/>
+      <c r="AK82" s="5"/>
+      <c r="AL82" s="5"/>
+      <c r="AM82" s="5"/>
+      <c r="AN82" s="5"/>
+      <c r="AO82" s="5"/>
+      <c r="AP82" s="5"/>
+      <c r="AQ82" s="5"/>
+      <c r="AR82" s="5"/>
+      <c r="AS82" s="5"/>
+      <c r="AT82" s="7"/>
+    </row>
+    <row r="83" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D83" s="4"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="5"/>
+      <c r="V83" s="5"/>
+      <c r="W83" s="5"/>
+      <c r="X83" s="7"/>
+      <c r="Z83" s="4"/>
+      <c r="AA83" s="5"/>
+      <c r="AB83" s="5"/>
+      <c r="AC83" s="5"/>
+      <c r="AD83" s="5"/>
+      <c r="AE83" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF83" s="5"/>
+      <c r="AG83" s="5"/>
+      <c r="AH83" s="5"/>
+      <c r="AI83" s="5"/>
+      <c r="AJ83" s="5"/>
+      <c r="AK83" s="5"/>
+      <c r="AL83" s="5"/>
+      <c r="AM83" s="5"/>
+      <c r="AN83" s="5"/>
+      <c r="AO83" s="5"/>
+      <c r="AP83" s="5"/>
+      <c r="AQ83" s="5"/>
+      <c r="AR83" s="5"/>
+      <c r="AS83" s="5"/>
+      <c r="AT83" s="7"/>
     </row>
-    <row r="51" spans="31:34" x14ac:dyDescent="0.25">
-      <c r="AE51" t="s">
+    <row r="84" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D84" s="4"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="5"/>
+      <c r="S84" s="5"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="5"/>
+      <c r="V84" s="5"/>
+      <c r="W84" s="5"/>
+      <c r="X84" s="7"/>
+      <c r="Z84" s="4"/>
+      <c r="AA84" s="5"/>
+      <c r="AB84" s="5"/>
+      <c r="AC84" s="5"/>
+      <c r="AD84" s="5"/>
+      <c r="AE84" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF84" s="5"/>
+      <c r="AG84" s="5"/>
+      <c r="AH84" s="5"/>
+      <c r="AI84" s="5"/>
+      <c r="AJ84" s="5"/>
+      <c r="AK84" s="5"/>
+      <c r="AL84" s="5"/>
+      <c r="AM84" s="5"/>
+      <c r="AN84" s="5"/>
+      <c r="AO84" s="5"/>
+      <c r="AP84" s="5"/>
+      <c r="AQ84" s="5"/>
+      <c r="AR84" s="5"/>
+      <c r="AS84" s="5"/>
+      <c r="AT84" s="7"/>
+    </row>
+    <row r="85" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D85" s="4"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="5"/>
+      <c r="S85" s="5"/>
+      <c r="T85" s="5"/>
+      <c r="U85" s="5"/>
+      <c r="V85" s="5"/>
+      <c r="W85" s="5"/>
+      <c r="X85" s="7"/>
+      <c r="Z85" s="4"/>
+      <c r="AA85" s="5"/>
+      <c r="AB85" s="5"/>
+      <c r="AC85" s="5"/>
+      <c r="AD85" s="5"/>
+      <c r="AE85" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF85" s="5"/>
+      <c r="AG85" s="5"/>
+      <c r="AH85" s="5"/>
+      <c r="AI85" s="5"/>
+      <c r="AJ85" s="5"/>
+      <c r="AK85" s="5"/>
+      <c r="AL85" s="5"/>
+      <c r="AM85" s="5"/>
+      <c r="AN85" s="5"/>
+      <c r="AO85" s="5"/>
+      <c r="AP85" s="5"/>
+      <c r="AQ85" s="5"/>
+      <c r="AR85" s="5"/>
+      <c r="AS85" s="5"/>
+      <c r="AT85" s="7"/>
+    </row>
+    <row r="86" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D86" s="4"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="5"/>
+      <c r="T86" s="5"/>
+      <c r="U86" s="5"/>
+      <c r="V86" s="5"/>
+      <c r="W86" s="5"/>
+      <c r="X86" s="7"/>
+      <c r="Z86" s="4"/>
+      <c r="AA86" s="5"/>
+      <c r="AB86" s="5"/>
+      <c r="AC86" s="5"/>
+      <c r="AD86" s="5"/>
+      <c r="AE86" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF86" s="5"/>
+      <c r="AG86" s="5"/>
+      <c r="AH86" s="5"/>
+      <c r="AI86" s="5"/>
+      <c r="AJ86" s="5"/>
+      <c r="AK86" s="5"/>
+      <c r="AL86" s="5"/>
+      <c r="AM86" s="5"/>
+      <c r="AN86" s="5"/>
+      <c r="AO86" s="5"/>
+      <c r="AP86" s="5"/>
+      <c r="AQ86" s="5"/>
+      <c r="AR86" s="5"/>
+      <c r="AS86" s="5"/>
+      <c r="AT86" s="7"/>
+    </row>
+    <row r="87" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D87" s="4"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="5"/>
+      <c r="S87" s="5"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="5"/>
+      <c r="V87" s="5"/>
+      <c r="W87" s="5"/>
+      <c r="X87" s="7"/>
+      <c r="Z87" s="4"/>
+      <c r="AA87" s="5"/>
+      <c r="AB87" s="5"/>
+      <c r="AC87" s="5"/>
+      <c r="AD87" s="5"/>
+      <c r="AE87" s="5"/>
+      <c r="AF87" s="5"/>
+      <c r="AG87" s="5"/>
+      <c r="AH87" s="5"/>
+      <c r="AI87" s="5"/>
+      <c r="AJ87" s="5"/>
+      <c r="AK87" s="5"/>
+      <c r="AL87" s="5"/>
+      <c r="AM87" s="5"/>
+      <c r="AN87" s="5"/>
+      <c r="AO87" s="5"/>
+      <c r="AP87" s="5"/>
+      <c r="AQ87" s="5"/>
+      <c r="AR87" s="5"/>
+      <c r="AS87" s="5"/>
+      <c r="AT87" s="7"/>
+    </row>
+    <row r="88" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D88" s="4"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="5"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="5"/>
+      <c r="V88" s="5"/>
+      <c r="W88" s="5"/>
+      <c r="X88" s="7"/>
+      <c r="Z88" s="4"/>
+      <c r="AA88" s="5"/>
+      <c r="AB88" s="5"/>
+      <c r="AC88" s="5"/>
+      <c r="AD88" s="5"/>
+      <c r="AE88" s="5"/>
+      <c r="AF88" s="5"/>
+      <c r="AG88" s="5"/>
+      <c r="AH88" s="5"/>
+      <c r="AI88" s="5"/>
+      <c r="AJ88" s="5"/>
+      <c r="AK88" s="5"/>
+      <c r="AL88" s="5"/>
+      <c r="AM88" s="5"/>
+      <c r="AN88" s="5"/>
+      <c r="AO88" s="5"/>
+      <c r="AP88" s="5"/>
+      <c r="AQ88" s="5"/>
+      <c r="AR88" s="5"/>
+      <c r="AS88" s="5"/>
+      <c r="AT88" s="7"/>
     </row>
-    <row r="52" spans="31:34" x14ac:dyDescent="0.25">
-      <c r="AE52" t="s">
+    <row r="89" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D89" s="4"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
+      <c r="R89" s="5"/>
+      <c r="S89" s="5"/>
+      <c r="T89" s="5"/>
+      <c r="U89" s="5"/>
+      <c r="V89" s="5"/>
+      <c r="W89" s="5"/>
+      <c r="X89" s="7"/>
+      <c r="Z89" s="4"/>
+      <c r="AA89" s="5"/>
+      <c r="AB89" s="5"/>
+      <c r="AC89" s="5"/>
+      <c r="AD89" s="5"/>
+      <c r="AE89" s="12"/>
+      <c r="AF89" s="5"/>
+      <c r="AG89" s="5"/>
+      <c r="AH89" s="5"/>
+      <c r="AI89" s="5"/>
+      <c r="AJ89" s="5"/>
+      <c r="AK89" s="5"/>
+      <c r="AL89" s="5"/>
+      <c r="AM89" s="5"/>
+      <c r="AN89" s="5"/>
+      <c r="AO89" s="5"/>
+      <c r="AP89" s="5"/>
+      <c r="AQ89" s="5"/>
+      <c r="AR89" s="5"/>
+      <c r="AS89" s="5"/>
+      <c r="AT89" s="7"/>
     </row>
-    <row r="53" spans="31:34" x14ac:dyDescent="0.25">
-      <c r="AE53" t="s">
+    <row r="90" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D90" s="4"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
+      <c r="R90" s="5"/>
+      <c r="S90" s="5"/>
+      <c r="T90" s="5"/>
+      <c r="U90" s="5"/>
+      <c r="V90" s="5"/>
+      <c r="W90" s="5"/>
+      <c r="X90" s="7"/>
+      <c r="Z90" s="4"/>
+      <c r="AA90" s="5"/>
+      <c r="AB90" s="5"/>
+      <c r="AC90" s="5"/>
+      <c r="AD90" s="5"/>
+      <c r="AE90" s="5"/>
+      <c r="AF90" s="5"/>
+      <c r="AG90" s="5"/>
+      <c r="AH90" s="5"/>
+      <c r="AI90" s="5"/>
+      <c r="AJ90" s="5"/>
+      <c r="AK90" s="5"/>
+      <c r="AL90" s="5"/>
+      <c r="AM90" s="5"/>
+      <c r="AN90" s="5"/>
+      <c r="AO90" s="5"/>
+      <c r="AP90" s="5"/>
+      <c r="AQ90" s="5"/>
+      <c r="AR90" s="5"/>
+      <c r="AS90" s="5"/>
+      <c r="AT90" s="7"/>
     </row>
-    <row r="56" spans="31:34" x14ac:dyDescent="0.25">
-      <c r="AE56" s="11"/>
-    </row>
-    <row r="58" spans="31:34" x14ac:dyDescent="0.25">
-      <c r="AH58" t="s">
+    <row r="91" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D91" s="4"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5"/>
+      <c r="Q91" s="5"/>
+      <c r="R91" s="5"/>
+      <c r="S91" s="5"/>
+      <c r="T91" s="5"/>
+      <c r="U91" s="5"/>
+      <c r="V91" s="5"/>
+      <c r="W91" s="5"/>
+      <c r="X91" s="7"/>
+      <c r="Z91" s="4"/>
+      <c r="AA91" s="5"/>
+      <c r="AB91" s="5"/>
+      <c r="AC91" s="5"/>
+      <c r="AD91" s="5"/>
+      <c r="AE91" s="5"/>
+      <c r="AF91" s="5"/>
+      <c r="AG91" s="5"/>
+      <c r="AH91" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="AI91" s="5"/>
+      <c r="AJ91" s="5"/>
+      <c r="AK91" s="5"/>
+      <c r="AL91" s="5"/>
+      <c r="AM91" s="5"/>
+      <c r="AN91" s="5"/>
+      <c r="AO91" s="5"/>
+      <c r="AP91" s="5"/>
+      <c r="AQ91" s="5"/>
+      <c r="AR91" s="5"/>
+      <c r="AS91" s="5"/>
+      <c r="AT91" s="7"/>
     </row>
-    <row r="60" spans="31:34" x14ac:dyDescent="0.25">
-      <c r="AH60" s="11" t="s">
+    <row r="92" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D92" s="4"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="5"/>
+      <c r="R92" s="5"/>
+      <c r="S92" s="5"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="5"/>
+      <c r="V92" s="5"/>
+      <c r="W92" s="5"/>
+      <c r="X92" s="7"/>
+      <c r="Z92" s="4"/>
+      <c r="AA92" s="5"/>
+      <c r="AB92" s="5"/>
+      <c r="AC92" s="5"/>
+      <c r="AD92" s="5"/>
+      <c r="AE92" s="5"/>
+      <c r="AF92" s="5"/>
+      <c r="AG92" s="5"/>
+      <c r="AH92" s="5"/>
+      <c r="AI92" s="5"/>
+      <c r="AJ92" s="5"/>
+      <c r="AK92" s="5"/>
+      <c r="AL92" s="5"/>
+      <c r="AM92" s="5"/>
+      <c r="AN92" s="5"/>
+      <c r="AO92" s="5"/>
+      <c r="AP92" s="5"/>
+      <c r="AQ92" s="5"/>
+      <c r="AR92" s="5"/>
+      <c r="AS92" s="5"/>
+      <c r="AT92" s="7"/>
+    </row>
+    <row r="93" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D93" s="4"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="5"/>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="5"/>
+      <c r="S93" s="5"/>
+      <c r="T93" s="5"/>
+      <c r="U93" s="5"/>
+      <c r="V93" s="5"/>
+      <c r="W93" s="5"/>
+      <c r="X93" s="7"/>
+      <c r="Z93" s="4"/>
+      <c r="AA93" s="5"/>
+      <c r="AB93" s="5"/>
+      <c r="AC93" s="5"/>
+      <c r="AD93" s="5"/>
+      <c r="AE93" s="5"/>
+      <c r="AF93" s="5"/>
+      <c r="AG93" s="5"/>
+      <c r="AH93" s="12" t="s">
         <v>17</v>
       </c>
+      <c r="AI93" s="5"/>
+      <c r="AJ93" s="5"/>
+      <c r="AK93" s="5"/>
+      <c r="AL93" s="5"/>
+      <c r="AM93" s="5"/>
+      <c r="AN93" s="5"/>
+      <c r="AO93" s="5"/>
+      <c r="AP93" s="5"/>
+      <c r="AQ93" s="5"/>
+      <c r="AR93" s="5"/>
+      <c r="AS93" s="5"/>
+      <c r="AT93" s="7"/>
     </row>
-    <row r="78" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="Z78" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="AE79" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="80" spans="26:31" x14ac:dyDescent="0.25">
-      <c r="AE80" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="31:34" x14ac:dyDescent="0.25">
-      <c r="AE82" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="31:34" x14ac:dyDescent="0.25">
-      <c r="AE83" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" spans="31:34" x14ac:dyDescent="0.25">
-      <c r="AE84" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85" spans="31:34" x14ac:dyDescent="0.25">
-      <c r="AE85" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="31:34" x14ac:dyDescent="0.25">
-      <c r="AE88" s="11"/>
-    </row>
-    <row r="90" spans="31:34" x14ac:dyDescent="0.25">
-      <c r="AH90" t="s">
+    <row r="94" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D94" s="4"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="5"/>
+      <c r="S94" s="5"/>
+      <c r="T94" s="5"/>
+      <c r="U94" s="5"/>
+      <c r="V94" s="5"/>
+      <c r="W94" s="5"/>
+      <c r="X94" s="7"/>
+      <c r="Z94" s="4"/>
+      <c r="AA94" s="5"/>
+      <c r="AB94" s="5"/>
+      <c r="AC94" s="5"/>
+      <c r="AD94" s="5"/>
+      <c r="AE94" s="5"/>
+      <c r="AF94" s="5"/>
+      <c r="AG94" s="5"/>
+      <c r="AH94" s="5"/>
+      <c r="AI94" s="5"/>
+      <c r="AJ94" s="5"/>
+      <c r="AK94" s="5"/>
+      <c r="AL94" s="5"/>
+      <c r="AM94" s="5"/>
+      <c r="AN94" s="5"/>
+      <c r="AO94" s="5"/>
+      <c r="AP94" s="5"/>
+      <c r="AQ94" s="5"/>
+      <c r="AR94" s="5"/>
+      <c r="AS94" s="5"/>
+      <c r="AT94" s="7"/>
     </row>
-    <row r="92" spans="31:34" x14ac:dyDescent="0.25">
-      <c r="AH92" s="11" t="s">
+    <row r="95" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D95" s="4"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="5"/>
+      <c r="R95" s="5"/>
+      <c r="S95" s="5"/>
+      <c r="T95" s="5"/>
+      <c r="U95" s="5"/>
+      <c r="V95" s="5"/>
+      <c r="W95" s="5"/>
+      <c r="X95" s="7"/>
+      <c r="Z95" s="4"/>
+      <c r="AA95" s="5"/>
+      <c r="AB95" s="5"/>
+      <c r="AC95" s="5"/>
+      <c r="AD95" s="5"/>
+      <c r="AE95" s="5"/>
+      <c r="AF95" s="5"/>
+      <c r="AG95" s="5"/>
+      <c r="AH95" s="5"/>
+      <c r="AI95" s="5"/>
+      <c r="AJ95" s="5"/>
+      <c r="AK95" s="5"/>
+      <c r="AL95" s="5"/>
+      <c r="AM95" s="5"/>
+      <c r="AN95" s="5"/>
+      <c r="AO95" s="5"/>
+      <c r="AP95" s="5"/>
+      <c r="AQ95" s="5"/>
+      <c r="AR95" s="5"/>
+      <c r="AS95" s="5"/>
+      <c r="AT95" s="7"/>
+    </row>
+    <row r="96" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D96" s="4"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="12" t="s">
         <v>17</v>
       </c>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="5"/>
+      <c r="Q96" s="5"/>
+      <c r="R96" s="5"/>
+      <c r="S96" s="5"/>
+      <c r="T96" s="5"/>
+      <c r="U96" s="5"/>
+      <c r="V96" s="5"/>
+      <c r="W96" s="5"/>
+      <c r="X96" s="7"/>
+      <c r="Z96" s="4"/>
+      <c r="AA96" s="5"/>
+      <c r="AB96" s="5"/>
+      <c r="AC96" s="5"/>
+      <c r="AD96" s="5"/>
+      <c r="AE96" s="5"/>
+      <c r="AF96" s="5"/>
+      <c r="AG96" s="5"/>
+      <c r="AH96" s="5"/>
+      <c r="AI96" s="5"/>
+      <c r="AJ96" s="5"/>
+      <c r="AK96" s="5"/>
+      <c r="AL96" s="5"/>
+      <c r="AM96" s="5"/>
+      <c r="AN96" s="5"/>
+      <c r="AO96" s="5"/>
+      <c r="AP96" s="5"/>
+      <c r="AQ96" s="5"/>
+      <c r="AR96" s="5"/>
+      <c r="AS96" s="5"/>
+      <c r="AT96" s="7"/>
+    </row>
+    <row r="97" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D97" s="4"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="5"/>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
+      <c r="R97" s="5"/>
+      <c r="S97" s="5"/>
+      <c r="T97" s="5"/>
+      <c r="U97" s="5"/>
+      <c r="V97" s="5"/>
+      <c r="W97" s="5"/>
+      <c r="X97" s="7"/>
+      <c r="Z97" s="4"/>
+      <c r="AA97" s="5"/>
+      <c r="AB97" s="5"/>
+      <c r="AC97" s="5"/>
+      <c r="AD97" s="5"/>
+      <c r="AE97" s="5"/>
+      <c r="AF97" s="5"/>
+      <c r="AG97" s="5"/>
+      <c r="AH97" s="5"/>
+      <c r="AI97" s="5"/>
+      <c r="AJ97" s="5"/>
+      <c r="AK97" s="5"/>
+      <c r="AL97" s="5"/>
+      <c r="AM97" s="5"/>
+      <c r="AN97" s="5"/>
+      <c r="AO97" s="5"/>
+      <c r="AP97" s="5"/>
+      <c r="AQ97" s="5"/>
+      <c r="AR97" s="5"/>
+      <c r="AS97" s="5"/>
+      <c r="AT97" s="7"/>
+    </row>
+    <row r="98" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D98" s="4"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="5"/>
+      <c r="N98" s="5"/>
+      <c r="O98" s="5"/>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="5"/>
+      <c r="R98" s="5"/>
+      <c r="S98" s="5"/>
+      <c r="T98" s="5"/>
+      <c r="U98" s="5"/>
+      <c r="V98" s="5"/>
+      <c r="W98" s="5"/>
+      <c r="X98" s="7"/>
+      <c r="Z98" s="4"/>
+      <c r="AA98" s="5"/>
+      <c r="AB98" s="5"/>
+      <c r="AC98" s="5"/>
+      <c r="AD98" s="5"/>
+      <c r="AE98" s="5"/>
+      <c r="AF98" s="5"/>
+      <c r="AG98" s="5"/>
+      <c r="AH98" s="5"/>
+      <c r="AI98" s="5"/>
+      <c r="AJ98" s="5"/>
+      <c r="AK98" s="5"/>
+      <c r="AL98" s="5"/>
+      <c r="AM98" s="5"/>
+      <c r="AN98" s="5"/>
+      <c r="AO98" s="5"/>
+      <c r="AP98" s="5"/>
+      <c r="AQ98" s="5"/>
+      <c r="AR98" s="5"/>
+      <c r="AS98" s="5"/>
+      <c r="AT98" s="7"/>
+    </row>
+    <row r="99" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D99" s="4"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="5"/>
+      <c r="R99" s="5"/>
+      <c r="S99" s="5"/>
+      <c r="T99" s="5"/>
+      <c r="U99" s="5"/>
+      <c r="V99" s="5"/>
+      <c r="W99" s="5"/>
+      <c r="X99" s="7"/>
+      <c r="Z99" s="4"/>
+      <c r="AA99" s="5"/>
+      <c r="AB99" s="5"/>
+      <c r="AC99" s="5"/>
+      <c r="AD99" s="5"/>
+      <c r="AE99" s="5"/>
+      <c r="AF99" s="5"/>
+      <c r="AG99" s="5"/>
+      <c r="AH99" s="5"/>
+      <c r="AI99" s="5"/>
+      <c r="AJ99" s="5"/>
+      <c r="AK99" s="5"/>
+      <c r="AL99" s="5"/>
+      <c r="AM99" s="5"/>
+      <c r="AN99" s="5"/>
+      <c r="AO99" s="5"/>
+      <c r="AP99" s="5"/>
+      <c r="AQ99" s="5"/>
+      <c r="AR99" s="5"/>
+      <c r="AS99" s="5"/>
+      <c r="AT99" s="7"/>
+    </row>
+    <row r="100" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D100" s="4"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
+      <c r="N100" s="5"/>
+      <c r="O100" s="5"/>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="5"/>
+      <c r="R100" s="5"/>
+      <c r="S100" s="5"/>
+      <c r="T100" s="5"/>
+      <c r="U100" s="5"/>
+      <c r="V100" s="5"/>
+      <c r="W100" s="5"/>
+      <c r="X100" s="7"/>
+      <c r="Z100" s="4"/>
+      <c r="AA100" s="5"/>
+      <c r="AB100" s="5"/>
+      <c r="AC100" s="5"/>
+      <c r="AD100" s="5"/>
+      <c r="AE100" s="5"/>
+      <c r="AF100" s="5"/>
+      <c r="AG100" s="5"/>
+      <c r="AH100" s="5"/>
+      <c r="AI100" s="5"/>
+      <c r="AJ100" s="5"/>
+      <c r="AK100" s="5"/>
+      <c r="AL100" s="5"/>
+      <c r="AM100" s="5"/>
+      <c r="AN100" s="5"/>
+      <c r="AO100" s="5"/>
+      <c r="AP100" s="5"/>
+      <c r="AQ100" s="5"/>
+      <c r="AR100" s="5"/>
+      <c r="AS100" s="5"/>
+      <c r="AT100" s="7"/>
+    </row>
+    <row r="101" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D101" s="4"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="5"/>
+      <c r="N101" s="5"/>
+      <c r="O101" s="5"/>
+      <c r="P101" s="5"/>
+      <c r="Q101" s="5"/>
+      <c r="R101" s="5"/>
+      <c r="S101" s="5"/>
+      <c r="T101" s="5"/>
+      <c r="U101" s="5"/>
+      <c r="V101" s="5"/>
+      <c r="W101" s="5"/>
+      <c r="X101" s="7"/>
+      <c r="Z101" s="4"/>
+      <c r="AA101" s="5"/>
+      <c r="AB101" s="5"/>
+      <c r="AC101" s="5"/>
+      <c r="AD101" s="5"/>
+      <c r="AE101" s="5"/>
+      <c r="AF101" s="5"/>
+      <c r="AG101" s="5"/>
+      <c r="AH101" s="5"/>
+      <c r="AI101" s="5"/>
+      <c r="AJ101" s="5"/>
+      <c r="AK101" s="5"/>
+      <c r="AL101" s="5"/>
+      <c r="AM101" s="5"/>
+      <c r="AN101" s="5"/>
+      <c r="AO101" s="5"/>
+      <c r="AP101" s="5"/>
+      <c r="AQ101" s="5"/>
+      <c r="AR101" s="5"/>
+      <c r="AS101" s="5"/>
+      <c r="AT101" s="7"/>
+    </row>
+    <row r="102" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D102" s="4"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="5"/>
+      <c r="N102" s="5"/>
+      <c r="O102" s="5"/>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="5"/>
+      <c r="R102" s="5"/>
+      <c r="S102" s="5"/>
+      <c r="T102" s="5"/>
+      <c r="U102" s="5"/>
+      <c r="V102" s="5"/>
+      <c r="W102" s="5"/>
+      <c r="X102" s="7"/>
+      <c r="Z102" s="4"/>
+      <c r="AA102" s="5"/>
+      <c r="AB102" s="5"/>
+      <c r="AC102" s="5"/>
+      <c r="AD102" s="5"/>
+      <c r="AE102" s="5"/>
+      <c r="AF102" s="5"/>
+      <c r="AG102" s="5"/>
+      <c r="AH102" s="5"/>
+      <c r="AI102" s="5"/>
+      <c r="AJ102" s="5"/>
+      <c r="AK102" s="5"/>
+      <c r="AL102" s="5"/>
+      <c r="AM102" s="5"/>
+      <c r="AN102" s="5"/>
+      <c r="AO102" s="5"/>
+      <c r="AP102" s="5"/>
+      <c r="AQ102" s="5"/>
+      <c r="AR102" s="5"/>
+      <c r="AS102" s="5"/>
+      <c r="AT102" s="7"/>
+    </row>
+    <row r="103" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D103" s="4"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
+      <c r="N103" s="5"/>
+      <c r="O103" s="5"/>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="5"/>
+      <c r="R103" s="5"/>
+      <c r="S103" s="5"/>
+      <c r="T103" s="5"/>
+      <c r="U103" s="5"/>
+      <c r="V103" s="5"/>
+      <c r="W103" s="5"/>
+      <c r="X103" s="7"/>
+      <c r="Z103" s="4"/>
+      <c r="AA103" s="5"/>
+      <c r="AB103" s="5"/>
+      <c r="AC103" s="5"/>
+      <c r="AD103" s="5"/>
+      <c r="AE103" s="5"/>
+      <c r="AF103" s="5"/>
+      <c r="AG103" s="5"/>
+      <c r="AH103" s="5"/>
+      <c r="AI103" s="5"/>
+      <c r="AJ103" s="5"/>
+      <c r="AK103" s="5"/>
+      <c r="AL103" s="5"/>
+      <c r="AM103" s="5"/>
+      <c r="AN103" s="5"/>
+      <c r="AO103" s="5"/>
+      <c r="AP103" s="5"/>
+      <c r="AQ103" s="5"/>
+      <c r="AR103" s="5"/>
+      <c r="AS103" s="5"/>
+      <c r="AT103" s="7"/>
+    </row>
+    <row r="104" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D104" s="4"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5"/>
+      <c r="O104" s="5"/>
+      <c r="P104" s="5"/>
+      <c r="Q104" s="5"/>
+      <c r="R104" s="5"/>
+      <c r="S104" s="5"/>
+      <c r="T104" s="5"/>
+      <c r="U104" s="5"/>
+      <c r="V104" s="5"/>
+      <c r="W104" s="5"/>
+      <c r="X104" s="7"/>
+      <c r="Z104" s="4"/>
+      <c r="AA104" s="5"/>
+      <c r="AB104" s="5"/>
+      <c r="AC104" s="5"/>
+      <c r="AD104" s="5"/>
+      <c r="AE104" s="5"/>
+      <c r="AF104" s="5"/>
+      <c r="AG104" s="5"/>
+      <c r="AH104" s="5"/>
+      <c r="AI104" s="5"/>
+      <c r="AJ104" s="5"/>
+      <c r="AK104" s="5"/>
+      <c r="AL104" s="5"/>
+      <c r="AM104" s="5"/>
+      <c r="AN104" s="5"/>
+      <c r="AO104" s="5"/>
+      <c r="AP104" s="5"/>
+      <c r="AQ104" s="5"/>
+      <c r="AR104" s="5"/>
+      <c r="AS104" s="5"/>
+      <c r="AT104" s="7"/>
+    </row>
+    <row r="105" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D105" s="4"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="5"/>
+      <c r="O105" s="5"/>
+      <c r="P105" s="5"/>
+      <c r="Q105" s="5"/>
+      <c r="R105" s="5"/>
+      <c r="S105" s="5"/>
+      <c r="T105" s="5"/>
+      <c r="U105" s="5"/>
+      <c r="V105" s="5"/>
+      <c r="W105" s="5"/>
+      <c r="X105" s="7"/>
+      <c r="Z105" s="4"/>
+      <c r="AA105" s="5"/>
+      <c r="AB105" s="5"/>
+      <c r="AC105" s="5"/>
+      <c r="AD105" s="5"/>
+      <c r="AE105" s="5"/>
+      <c r="AF105" s="5"/>
+      <c r="AG105" s="5"/>
+      <c r="AH105" s="5"/>
+      <c r="AI105" s="5"/>
+      <c r="AJ105" s="5"/>
+      <c r="AK105" s="5"/>
+      <c r="AL105" s="5"/>
+      <c r="AM105" s="5"/>
+      <c r="AN105" s="5"/>
+      <c r="AO105" s="5"/>
+      <c r="AP105" s="5"/>
+      <c r="AQ105" s="5"/>
+      <c r="AR105" s="5"/>
+      <c r="AS105" s="5"/>
+      <c r="AT105" s="7"/>
+    </row>
+    <row r="106" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D106" s="4"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+      <c r="M106" s="5"/>
+      <c r="N106" s="5"/>
+      <c r="O106" s="5"/>
+      <c r="P106" s="5"/>
+      <c r="Q106" s="5"/>
+      <c r="R106" s="5"/>
+      <c r="S106" s="5"/>
+      <c r="T106" s="5"/>
+      <c r="U106" s="5"/>
+      <c r="V106" s="5"/>
+      <c r="W106" s="5"/>
+      <c r="X106" s="7"/>
+      <c r="Z106" s="4"/>
+      <c r="AA106" s="5"/>
+      <c r="AB106" s="5"/>
+      <c r="AC106" s="5"/>
+      <c r="AD106" s="5"/>
+      <c r="AE106" s="5"/>
+      <c r="AF106" s="5"/>
+      <c r="AG106" s="5"/>
+      <c r="AH106" s="5"/>
+      <c r="AI106" s="5"/>
+      <c r="AJ106" s="5"/>
+      <c r="AK106" s="5"/>
+      <c r="AL106" s="5"/>
+      <c r="AM106" s="5"/>
+      <c r="AN106" s="5"/>
+      <c r="AO106" s="5"/>
+      <c r="AP106" s="5"/>
+      <c r="AQ106" s="5"/>
+      <c r="AR106" s="5"/>
+      <c r="AS106" s="5"/>
+      <c r="AT106" s="7"/>
+    </row>
+    <row r="107" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D107" s="4"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
+      <c r="M107" s="5"/>
+      <c r="N107" s="5"/>
+      <c r="O107" s="5"/>
+      <c r="P107" s="5"/>
+      <c r="Q107" s="5"/>
+      <c r="R107" s="5"/>
+      <c r="S107" s="5"/>
+      <c r="T107" s="5"/>
+      <c r="U107" s="5"/>
+      <c r="V107" s="5"/>
+      <c r="W107" s="5"/>
+      <c r="X107" s="7"/>
+      <c r="Z107" s="4"/>
+      <c r="AA107" s="5"/>
+      <c r="AB107" s="5"/>
+      <c r="AC107" s="5"/>
+      <c r="AD107" s="5"/>
+      <c r="AE107" s="5"/>
+      <c r="AF107" s="5"/>
+      <c r="AG107" s="5"/>
+      <c r="AH107" s="5"/>
+      <c r="AI107" s="5"/>
+      <c r="AJ107" s="5"/>
+      <c r="AK107" s="5"/>
+      <c r="AL107" s="5"/>
+      <c r="AM107" s="5"/>
+      <c r="AN107" s="5"/>
+      <c r="AO107" s="5"/>
+      <c r="AP107" s="5"/>
+      <c r="AQ107" s="5"/>
+      <c r="AR107" s="5"/>
+      <c r="AS107" s="5"/>
+      <c r="AT107" s="7"/>
+    </row>
+    <row r="108" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D108" s="4"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
+      <c r="M108" s="5"/>
+      <c r="N108" s="5"/>
+      <c r="O108" s="5"/>
+      <c r="P108" s="5"/>
+      <c r="Q108" s="5"/>
+      <c r="R108" s="5"/>
+      <c r="S108" s="5"/>
+      <c r="T108" s="5"/>
+      <c r="U108" s="5"/>
+      <c r="V108" s="5"/>
+      <c r="W108" s="5"/>
+      <c r="X108" s="7"/>
+      <c r="Z108" s="4"/>
+      <c r="AA108" s="5"/>
+      <c r="AB108" s="5"/>
+      <c r="AC108" s="5"/>
+      <c r="AD108" s="5"/>
+      <c r="AE108" s="5"/>
+      <c r="AF108" s="5"/>
+      <c r="AG108" s="5"/>
+      <c r="AH108" s="5"/>
+      <c r="AI108" s="5"/>
+      <c r="AJ108" s="5"/>
+      <c r="AK108" s="5"/>
+      <c r="AL108" s="5"/>
+      <c r="AM108" s="5"/>
+      <c r="AN108" s="5"/>
+      <c r="AO108" s="5"/>
+      <c r="AP108" s="5"/>
+      <c r="AQ108" s="5"/>
+      <c r="AR108" s="5"/>
+      <c r="AS108" s="5"/>
+      <c r="AT108" s="7"/>
+    </row>
+    <row r="109" spans="4:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D109" s="8"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
+      <c r="O109" s="9"/>
+      <c r="P109" s="9"/>
+      <c r="Q109" s="9"/>
+      <c r="R109" s="9"/>
+      <c r="S109" s="9"/>
+      <c r="T109" s="9"/>
+      <c r="U109" s="9"/>
+      <c r="V109" s="9"/>
+      <c r="W109" s="9"/>
+      <c r="X109" s="10"/>
+      <c r="Z109" s="8"/>
+      <c r="AA109" s="9"/>
+      <c r="AB109" s="9"/>
+      <c r="AC109" s="9"/>
+      <c r="AD109" s="9"/>
+      <c r="AE109" s="9"/>
+      <c r="AF109" s="9"/>
+      <c r="AG109" s="9"/>
+      <c r="AH109" s="9"/>
+      <c r="AI109" s="9"/>
+      <c r="AJ109" s="9"/>
+      <c r="AK109" s="9"/>
+      <c r="AL109" s="9"/>
+      <c r="AM109" s="9"/>
+      <c r="AN109" s="9"/>
+      <c r="AO109" s="9"/>
+      <c r="AP109" s="9"/>
+      <c r="AQ109" s="9"/>
+      <c r="AR109" s="9"/>
+      <c r="AS109" s="9"/>
+      <c r="AT109" s="10"/>
+    </row>
+    <row r="111" spans="4:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="112" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D112" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" s="2"/>
+      <c r="Q112" s="2"/>
+      <c r="R112" s="2"/>
+      <c r="S112" s="2"/>
+      <c r="T112" s="2"/>
+      <c r="U112" s="2"/>
+      <c r="V112" s="2"/>
+      <c r="W112" s="2"/>
+      <c r="X112" s="3"/>
+    </row>
+    <row r="113" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D113" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="5"/>
+      <c r="N113" s="5"/>
+      <c r="O113" s="5"/>
+      <c r="P113" s="5"/>
+      <c r="Q113" s="5"/>
+      <c r="R113" s="5"/>
+      <c r="S113" s="5"/>
+      <c r="T113" s="5"/>
+      <c r="U113" s="5"/>
+      <c r="V113" s="5"/>
+      <c r="W113" s="5"/>
+      <c r="X113" s="7"/>
+    </row>
+    <row r="114" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D114" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
+      <c r="M114" s="5"/>
+      <c r="N114" s="5"/>
+      <c r="O114" s="5"/>
+      <c r="P114" s="5"/>
+      <c r="Q114" s="5"/>
+      <c r="R114" s="5"/>
+      <c r="S114" s="5"/>
+      <c r="T114" s="5"/>
+      <c r="U114" s="5"/>
+      <c r="V114" s="5"/>
+      <c r="W114" s="5"/>
+      <c r="X114" s="7"/>
+    </row>
+    <row r="115" spans="4:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D115" s="8"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+      <c r="N115" s="9"/>
+      <c r="O115" s="9"/>
+      <c r="P115" s="9"/>
+      <c r="Q115" s="9"/>
+      <c r="R115" s="9"/>
+      <c r="S115" s="9"/>
+      <c r="T115" s="9"/>
+      <c r="U115" s="9"/>
+      <c r="V115" s="9"/>
+      <c r="W115" s="9"/>
+      <c r="X115" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>